--- a/teaching/traditional_assets/database/data/switzerland/switzerland_software_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_software_entertainment.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="swx_aswn" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,22 +593,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.1231481481481481</v>
+        <v>0.09093525179856116</v>
       </c>
       <c r="H2">
-        <v>-0.2037037037037037</v>
+        <v>0.03194244604316547</v>
       </c>
       <c r="I2">
-        <v>-0.03600676258155464</v>
+        <v>0.01077588239016919</v>
       </c>
       <c r="J2">
-        <v>-0.03600676258155464</v>
+        <v>0.01077588239016919</v>
       </c>
       <c r="K2">
-        <v>-1.06</v>
+        <v>1.35</v>
       </c>
       <c r="L2">
-        <v>-0.09814814814814815</v>
+        <v>0.09712230215827339</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +626,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6.47</v>
+        <v>3.96</v>
       </c>
       <c r="V2">
-        <v>0.2041009463722397</v>
+        <v>0.08859060402684563</v>
       </c>
       <c r="W2">
-        <v>-0.1169977924944812</v>
+        <v>-0.151006711409396</v>
       </c>
       <c r="X2">
-        <v>0.08470137333540458</v>
+        <v>0.06759995757089385</v>
       </c>
       <c r="Y2">
-        <v>-0.2016991658298858</v>
+        <v>-0.2186066689802899</v>
       </c>
       <c r="Z2">
-        <v>12.73036690118272</v>
+        <v>-1.089433575232068</v>
       </c>
       <c r="AA2">
-        <v>-0.4583792985869679</v>
+        <v>-0.01173960807860231</v>
       </c>
       <c r="AB2">
-        <v>0.08492313032354594</v>
+        <v>0.06310798062880386</v>
       </c>
       <c r="AC2">
-        <v>-0.5433024289105138</v>
+        <v>-0.07484758870740617</v>
       </c>
       <c r="AD2">
-        <v>2.37</v>
+        <v>4.6</v>
       </c>
       <c r="AE2">
-        <v>0.3643651794039509</v>
+        <v>0.2810761738832411</v>
       </c>
       <c r="AF2">
-        <v>2.734365179403951</v>
+        <v>4.88107617388324</v>
       </c>
       <c r="AG2">
-        <v>-3.735634820596049</v>
+        <v>0.9210761738832405</v>
       </c>
       <c r="AH2">
-        <v>0.07940803221310562</v>
+        <v>0.09844635394288476</v>
       </c>
       <c r="AI2">
-        <v>-0.4406261822446905</v>
+        <v>-1.713305259037556</v>
       </c>
       <c r="AJ2">
-        <v>-0.1335855399051713</v>
+        <v>0.02018970728293626</v>
       </c>
       <c r="AK2">
-        <v>0.2947098802914541</v>
+        <v>-0.1352748536193487</v>
       </c>
       <c r="AL2">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
       <c r="AM2">
-        <v>-0.223</v>
+        <v>0.005999999999999991</v>
       </c>
       <c r="AN2">
-        <v>-27.55813953488373</v>
+        <v>9.44558521560575</v>
       </c>
       <c r="AO2">
-        <v>-4.363636363636363</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AP2">
-        <v>43.43761419297731</v>
+        <v>1.891326845756141</v>
       </c>
       <c r="AQ2">
-        <v>2.152466367713004</v>
+        <v>10.00000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +718,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.1231481481481481</v>
+        <v>0.09093525179856116</v>
       </c>
       <c r="H3">
-        <v>-0.2037037037037037</v>
+        <v>0.03194244604316547</v>
       </c>
       <c r="I3">
-        <v>-0.03600676258155464</v>
+        <v>0.01077588239016919</v>
       </c>
       <c r="J3">
-        <v>-0.03600676258155464</v>
+        <v>0.01077588239016919</v>
       </c>
       <c r="K3">
-        <v>-1.06</v>
+        <v>1.35</v>
       </c>
       <c r="L3">
-        <v>-0.09814814814814815</v>
+        <v>0.09712230215827339</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +751,8783 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>6.47</v>
+        <v>3.96</v>
       </c>
       <c r="V3">
-        <v>0.2041009463722397</v>
+        <v>0.08859060402684563</v>
       </c>
       <c r="W3">
-        <v>-0.1169977924944812</v>
+        <v>-0.151006711409396</v>
       </c>
       <c r="X3">
-        <v>0.08470137333540458</v>
+        <v>0.06759995757089385</v>
       </c>
       <c r="Y3">
-        <v>-0.2016991658298858</v>
+        <v>-0.2186066689802899</v>
       </c>
       <c r="Z3">
-        <v>12.73036690118272</v>
+        <v>-1.089433575232068</v>
       </c>
       <c r="AA3">
-        <v>-0.4583792985869679</v>
+        <v>-0.01173960807860231</v>
       </c>
       <c r="AB3">
-        <v>0.08492313032354594</v>
+        <v>0.06310798062880386</v>
       </c>
       <c r="AC3">
-        <v>-0.5433024289105138</v>
+        <v>-0.07484758870740617</v>
       </c>
       <c r="AD3">
-        <v>2.37</v>
+        <v>4.6</v>
       </c>
       <c r="AE3">
-        <v>0.3643651794039509</v>
+        <v>0.2810761738832411</v>
       </c>
       <c r="AF3">
-        <v>2.734365179403951</v>
+        <v>4.88107617388324</v>
       </c>
       <c r="AG3">
-        <v>-3.735634820596049</v>
+        <v>0.9210761738832405</v>
       </c>
       <c r="AH3">
-        <v>0.07940803221310562</v>
+        <v>0.09844635394288476</v>
       </c>
       <c r="AI3">
-        <v>-0.4406261822446905</v>
+        <v>-1.713305259037556</v>
       </c>
       <c r="AJ3">
-        <v>-0.1335855399051713</v>
+        <v>0.02018970728293626</v>
       </c>
       <c r="AK3">
-        <v>0.2947098802914541</v>
+        <v>-0.1352748536193487</v>
       </c>
       <c r="AL3">
+        <v>0.106</v>
+      </c>
+      <c r="AM3">
+        <v>0.005999999999999991</v>
+      </c>
+      <c r="AN3">
+        <v>9.44558521560575</v>
+      </c>
+      <c r="AO3">
+        <v>0.5660377358490566</v>
+      </c>
+      <c r="AP3">
+        <v>1.891326845756141</v>
+      </c>
+      <c r="AQ3">
+        <v>10.00000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Asmallworld AG (SWX:ASWN)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SWX:ASWN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Software (Entertainment)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0984463539428848</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>44.7</v>
+      </c>
+      <c r="H2">
+        <v>47.0895736939677</v>
+      </c>
+      <c r="I2">
+        <v>45.6210761738832</v>
+      </c>
+      <c r="J2">
+        <v>43.6253844557065</v>
+      </c>
+      <c r="K2">
+        <v>4.88107617388324</v>
+      </c>
+      <c r="L2">
+        <v>0.495810761738832</v>
+      </c>
+      <c r="M2">
+        <v>0.06310798062880391</v>
+      </c>
+      <c r="N2">
+        <v>0.0655694865307575</v>
+      </c>
+      <c r="O2">
+        <v>0.02197128</v>
+      </c>
+      <c r="P2">
+        <v>0.275587477069322</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.06759995757089381</v>
+      </c>
+      <c r="T2">
+        <v>0.0634480926869336</v>
+      </c>
+      <c r="U2">
+        <v>1.23516859260368</v>
+      </c>
+      <c r="V2">
+        <v>1.14720535353673</v>
+      </c>
+      <c r="W2">
+        <v>-3.370646983513564</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>44.7</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0258</v>
+      </c>
+      <c r="AD2">
+        <v>0.1484</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.487</v>
+      </c>
+      <c r="AH2">
+        <v>0.794</v>
+      </c>
+      <c r="AI2">
+        <v>5.931999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>4.88107617388324</v>
+      </c>
+      <c r="AK2">
+        <v>4.6</v>
+      </c>
+      <c r="AL2">
+        <v>0.106</v>
+      </c>
+      <c r="AN2">
+        <v>3.96</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-4.88107617388324</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>3.96</v>
+      </c>
+      <c r="H2">
+        <v>44.7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.487</v>
+      </c>
+      <c r="K2">
+        <v>0.794</v>
+      </c>
+      <c r="L2">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="O2">
+        <v>-0.04555880000000001</v>
+      </c>
+      <c r="P2">
+        <v>-0.2614412</v>
+      </c>
+      <c r="Q2">
+        <v>0.5325588</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06556948653075748</v>
+      </c>
+      <c r="C3">
+        <v>47.0895736939677</v>
+      </c>
+      <c r="D3">
+        <v>43.62538445570653</v>
+      </c>
+      <c r="E3">
+        <v>-4.385265412144408</v>
+      </c>
+      <c r="F3">
+        <v>0.4958107617388325</v>
+      </c>
+      <c r="G3">
+        <v>3.96</v>
+      </c>
+      <c r="H3">
+        <v>44.7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.487</v>
+      </c>
+      <c r="K3">
+        <v>0.794</v>
+      </c>
+      <c r="L3">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.09108043693142352</v>
+      </c>
+      <c r="N3">
+        <v>-0.3980804369314236</v>
+      </c>
+      <c r="O3">
+        <v>-0.05907513684062326</v>
+      </c>
+      <c r="P3">
+        <v>-0.3390053000908003</v>
+      </c>
+      <c r="Q3">
+        <v>0.4549946999091997</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06344809268693359</v>
+      </c>
+      <c r="T3">
+        <v>1.147205353536729</v>
+      </c>
+      <c r="U3">
+        <v>0.1837</v>
+      </c>
+      <c r="V3">
+        <v>-0.5002040123534128</v>
+      </c>
+      <c r="W3">
+        <v>0.275587477069322</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>-3.370646983513564</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06731348653075747</v>
+      </c>
+      <c r="C4">
+        <v>45.28229770163262</v>
+      </c>
+      <c r="D4">
+        <v>42.31391922511028</v>
+      </c>
+      <c r="E4">
+        <v>-3.889454650405575</v>
+      </c>
+      <c r="F4">
+        <v>0.991621523477665</v>
+      </c>
+      <c r="G4">
+        <v>3.96</v>
+      </c>
+      <c r="H4">
+        <v>44.7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.487</v>
+      </c>
+      <c r="K4">
+        <v>0.794</v>
+      </c>
+      <c r="L4">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.182160873862847</v>
+      </c>
+      <c r="N4">
+        <v>-0.4891608738628471</v>
+      </c>
+      <c r="O4">
+        <v>-0.07259147368124652</v>
+      </c>
+      <c r="P4">
+        <v>-0.4165694001816006</v>
+      </c>
+      <c r="Q4">
+        <v>0.3774305998183994</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06400062424496353</v>
+      </c>
+      <c r="T4">
+        <v>1.158911530613634</v>
+      </c>
+      <c r="U4">
+        <v>0.1837</v>
+      </c>
+      <c r="V4">
+        <v>-0.2501020061767064</v>
+      </c>
+      <c r="W4">
+        <v>0.2296437385346609</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>-1.685323491756782</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06905748653075748</v>
+      </c>
+      <c r="C5">
+        <v>43.5515709584358</v>
+      </c>
+      <c r="D5">
+        <v>41.07900324365229</v>
+      </c>
+      <c r="E5">
+        <v>-3.393643888666743</v>
+      </c>
+      <c r="F5">
+        <v>1.487432285216497</v>
+      </c>
+      <c r="G5">
+        <v>3.96</v>
+      </c>
+      <c r="H5">
+        <v>44.7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.487</v>
+      </c>
+      <c r="K5">
+        <v>0.794</v>
+      </c>
+      <c r="L5">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.2732413107942706</v>
+      </c>
+      <c r="N5">
+        <v>-0.5802413107942705</v>
+      </c>
+      <c r="O5">
+        <v>-0.08610781052186975</v>
+      </c>
+      <c r="P5">
+        <v>-0.4941335002724008</v>
+      </c>
+      <c r="Q5">
+        <v>0.2998664997275993</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06456454820625182</v>
+      </c>
+      <c r="T5">
+        <v>1.170859072166352</v>
+      </c>
+      <c r="U5">
+        <v>0.1837</v>
+      </c>
+      <c r="V5">
+        <v>-0.1667346707844709</v>
+      </c>
+      <c r="W5">
+        <v>0.2143291590231073</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>-1.123548994504521</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07080148653075749</v>
+      </c>
+      <c r="C6">
+        <v>41.89088133444213</v>
+      </c>
+      <c r="D6">
+        <v>39.91412438139746</v>
+      </c>
+      <c r="E6">
+        <v>-2.89783312692791</v>
+      </c>
+      <c r="F6">
+        <v>1.98324304695533</v>
+      </c>
+      <c r="G6">
+        <v>3.96</v>
+      </c>
+      <c r="H6">
+        <v>44.7</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.487</v>
+      </c>
+      <c r="K6">
+        <v>0.794</v>
+      </c>
+      <c r="L6">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.3643217477256941</v>
+      </c>
+      <c r="N6">
+        <v>-0.6713217477256941</v>
+      </c>
+      <c r="O6">
+        <v>-0.099624147362493</v>
+      </c>
+      <c r="P6">
+        <v>-0.5716976003632011</v>
+      </c>
+      <c r="Q6">
+        <v>0.222302399636799</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06514022058340029</v>
+      </c>
+      <c r="T6">
+        <v>1.183055520834752</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>-0.1250510030883532</v>
+      </c>
+      <c r="W6">
+        <v>0.2066718692673305</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>-0.8426617458783907</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07254548653075749</v>
+      </c>
+      <c r="C7">
+        <v>40.29443498999964</v>
+      </c>
+      <c r="D7">
+        <v>38.8134887986938</v>
+      </c>
+      <c r="E7">
+        <v>-2.402022365189078</v>
+      </c>
+      <c r="F7">
+        <v>2.479053808694163</v>
+      </c>
+      <c r="G7">
+        <v>3.96</v>
+      </c>
+      <c r="H7">
+        <v>44.7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.487</v>
+      </c>
+      <c r="K7">
+        <v>0.794</v>
+      </c>
+      <c r="L7">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.4554021846571177</v>
+      </c>
+      <c r="N7">
+        <v>-0.7624021846571177</v>
+      </c>
+      <c r="O7">
+        <v>-0.1131404842031163</v>
+      </c>
+      <c r="P7">
+        <v>-0.6492617004540014</v>
+      </c>
+      <c r="Q7">
+        <v>0.1447382995459986</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06572801237901502</v>
+      </c>
+      <c r="T7">
+        <v>1.195508736843538</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>-0.1000408024706825</v>
+      </c>
+      <c r="W7">
+        <v>0.2020774954138644</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>-0.6741293967027127</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07428948653075747</v>
+      </c>
+      <c r="C8">
+        <v>38.75705999874677</v>
+      </c>
+      <c r="D8">
+        <v>37.77192456917976</v>
+      </c>
+      <c r="E8">
+        <v>-1.906211603450246</v>
+      </c>
+      <c r="F8">
+        <v>2.974864570432995</v>
+      </c>
+      <c r="G8">
+        <v>3.96</v>
+      </c>
+      <c r="H8">
+        <v>44.7</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.487</v>
+      </c>
+      <c r="K8">
+        <v>0.794</v>
+      </c>
+      <c r="L8">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.5464826215885411</v>
+      </c>
+      <c r="N8">
+        <v>-0.8534826215885412</v>
+      </c>
+      <c r="O8">
+        <v>-0.1266568210437395</v>
+      </c>
+      <c r="P8">
+        <v>-0.7268258005448016</v>
+      </c>
+      <c r="Q8">
+        <v>0.06717419945519842</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06632831038304708</v>
+      </c>
+      <c r="T8">
+        <v>1.208226914895065</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>-0.08336733539223547</v>
+      </c>
+      <c r="W8">
+        <v>0.1990145795115537</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>-0.5617744972522607</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07603348653075748</v>
+      </c>
+      <c r="C9">
+        <v>37.27412508280555</v>
+      </c>
+      <c r="D9">
+        <v>36.78480041497738</v>
+      </c>
+      <c r="E9">
+        <v>-1.410400841711413</v>
+      </c>
+      <c r="F9">
+        <v>3.470675332171828</v>
+      </c>
+      <c r="G9">
+        <v>3.96</v>
+      </c>
+      <c r="H9">
+        <v>44.7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.487</v>
+      </c>
+      <c r="K9">
+        <v>0.794</v>
+      </c>
+      <c r="L9">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.6375630585199648</v>
+      </c>
+      <c r="N9">
+        <v>-0.9445630585199648</v>
+      </c>
+      <c r="O9">
+        <v>-0.1401731578843628</v>
+      </c>
+      <c r="P9">
+        <v>-0.804389900635602</v>
+      </c>
+      <c r="Q9">
+        <v>-0.01038990063560197</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06694151802157448</v>
+      </c>
+      <c r="T9">
+        <v>1.221218602152002</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>-0.07145771605048754</v>
+      </c>
+      <c r="W9">
+        <v>0.1968267824384745</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>-0.4815209976447947</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07777748653075749</v>
+      </c>
+      <c r="C10">
+        <v>35.8414707659969</v>
+      </c>
+      <c r="D10">
+        <v>35.84795685990756</v>
+      </c>
+      <c r="E10">
+        <v>-0.9145900799725806</v>
+      </c>
+      <c r="F10">
+        <v>3.96648609391066</v>
+      </c>
+      <c r="G10">
+        <v>3.96</v>
+      </c>
+      <c r="H10">
+        <v>44.7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.487</v>
+      </c>
+      <c r="K10">
+        <v>0.794</v>
+      </c>
+      <c r="L10">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.7286434954513882</v>
+      </c>
+      <c r="N10">
+        <v>-1.035643495451388</v>
+      </c>
+      <c r="O10">
+        <v>-0.153689494724986</v>
+      </c>
+      <c r="P10">
+        <v>-0.8819540007264022</v>
+      </c>
+      <c r="Q10">
+        <v>-0.08795400072640214</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06756805626093941</v>
+      </c>
+      <c r="T10">
+        <v>1.234492717392784</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>-0.0625255015441766</v>
+      </c>
+      <c r="W10">
+        <v>0.1951859346336652</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>-0.4213308729391954</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0795214865307575</v>
+      </c>
+      <c r="C11">
+        <v>34.45535078620562</v>
+      </c>
+      <c r="D11">
+        <v>34.95764764185511</v>
+      </c>
+      <c r="E11">
+        <v>-0.4187793182337485</v>
+      </c>
+      <c r="F11">
+        <v>4.462296855649492</v>
+      </c>
+      <c r="G11">
+        <v>3.96</v>
+      </c>
+      <c r="H11">
+        <v>44.7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.487</v>
+      </c>
+      <c r="K11">
+        <v>0.794</v>
+      </c>
+      <c r="L11">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.8197239323828117</v>
+      </c>
+      <c r="N11">
+        <v>-1.126723932382812</v>
+      </c>
+      <c r="O11">
+        <v>-0.1672058315656093</v>
+      </c>
+      <c r="P11">
+        <v>-0.9595181008172025</v>
+      </c>
+      <c r="Q11">
+        <v>-0.1655181008172024</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0682083645714992</v>
+      </c>
+      <c r="T11">
+        <v>1.248058571430068</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>-0.05557822359482364</v>
+      </c>
+      <c r="W11">
+        <v>0.1939097196743691</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>-0.374516331501507</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.08126548653075749</v>
+      </c>
+      <c r="C12">
+        <v>33.11238202656541</v>
+      </c>
+      <c r="D12">
+        <v>34.11048964395373</v>
+      </c>
+      <c r="E12">
+        <v>0.07703144350508495</v>
+      </c>
+      <c r="F12">
+        <v>4.958107617388325</v>
+      </c>
+      <c r="G12">
+        <v>3.96</v>
+      </c>
+      <c r="H12">
+        <v>44.7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.487</v>
+      </c>
+      <c r="K12">
+        <v>0.794</v>
+      </c>
+      <c r="L12">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.9108043693142354</v>
+      </c>
+      <c r="N12">
+        <v>-1.217804369314235</v>
+      </c>
+      <c r="O12">
+        <v>-0.1807221684062325</v>
+      </c>
+      <c r="P12">
+        <v>-1.037082200908003</v>
+      </c>
+      <c r="Q12">
+        <v>-0.2430822009080027</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06886290195562696</v>
+      </c>
+      <c r="T12">
+        <v>1.261925888890402</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>-0.05002040123534127</v>
+      </c>
+      <c r="W12">
+        <v>0.1928887477069322</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>-0.3370646983513561</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
         <v>0.11</v>
       </c>
-      <c r="AM3">
-        <v>-0.223</v>
-      </c>
-      <c r="AN3">
-        <v>-27.55813953488373</v>
-      </c>
-      <c r="AO3">
-        <v>-4.363636363636363</v>
-      </c>
-      <c r="AP3">
-        <v>43.43761419297731</v>
-      </c>
-      <c r="AQ3">
-        <v>2.152466367713004</v>
+      <c r="B13">
+        <v>0.08300948653075749</v>
+      </c>
+      <c r="C13">
+        <v>31.80950155454944</v>
+      </c>
+      <c r="D13">
+        <v>33.30341993367659</v>
+      </c>
+      <c r="E13">
+        <v>0.5728422052439166</v>
+      </c>
+      <c r="F13">
+        <v>5.453918379127157</v>
+      </c>
+      <c r="G13">
+        <v>3.96</v>
+      </c>
+      <c r="H13">
+        <v>44.7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.487</v>
+      </c>
+      <c r="K13">
+        <v>0.794</v>
+      </c>
+      <c r="L13">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M13">
+        <v>1.001884806245659</v>
+      </c>
+      <c r="N13">
+        <v>-1.308884806245659</v>
+      </c>
+      <c r="O13">
+        <v>-0.1942385052468557</v>
+      </c>
+      <c r="P13">
+        <v>-1.114646300998803</v>
+      </c>
+      <c r="Q13">
+        <v>-0.3206463009988028</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06953214804501602</v>
+      </c>
+      <c r="T13">
+        <v>1.276104831462204</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>-0.04547309203212844</v>
+      </c>
+      <c r="W13">
+        <v>0.192053407006302</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>-0.3064224530466875</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.08475348653075748</v>
+      </c>
+      <c r="C14">
+        <v>30.54392961894283</v>
+      </c>
+      <c r="D14">
+        <v>32.53365875980882</v>
+      </c>
+      <c r="E14">
+        <v>1.068652966982749</v>
+      </c>
+      <c r="F14">
+        <v>5.94972914086599</v>
+      </c>
+      <c r="G14">
+        <v>3.96</v>
+      </c>
+      <c r="H14">
+        <v>44.7</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.487</v>
+      </c>
+      <c r="K14">
+        <v>0.794</v>
+      </c>
+      <c r="L14">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M14">
+        <v>1.092965243177082</v>
+      </c>
+      <c r="N14">
+        <v>-1.399965243177082</v>
+      </c>
+      <c r="O14">
+        <v>-0.207754842087479</v>
+      </c>
+      <c r="P14">
+        <v>-1.192210401089603</v>
+      </c>
+      <c r="Q14">
+        <v>-0.3982104010896033</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.0702166042728003</v>
+      </c>
+      <c r="T14">
+        <v>1.29060602272882</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>-0.04168366769611773</v>
+      </c>
+      <c r="W14">
+        <v>0.1913572897557768</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>-0.2808872486261305</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.08649748653075748</v>
+      </c>
+      <c r="C15">
+        <v>29.31313766251834</v>
+      </c>
+      <c r="D15">
+        <v>31.79867756512316</v>
+      </c>
+      <c r="E15">
+        <v>1.564463728721582</v>
+      </c>
+      <c r="F15">
+        <v>6.445539902604822</v>
+      </c>
+      <c r="G15">
+        <v>3.96</v>
+      </c>
+      <c r="H15">
+        <v>44.7</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.487</v>
+      </c>
+      <c r="K15">
+        <v>0.794</v>
+      </c>
+      <c r="L15">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M15">
+        <v>1.184045680108506</v>
+      </c>
+      <c r="N15">
+        <v>-1.491045680108506</v>
+      </c>
+      <c r="O15">
+        <v>-0.2212711789281022</v>
+      </c>
+      <c r="P15">
+        <v>-1.269774501180403</v>
+      </c>
+      <c r="Q15">
+        <v>-0.4757745011804033</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07091679512651064</v>
+      </c>
+      <c r="T15">
+        <v>1.305440574714209</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>-0.03847723171949329</v>
+      </c>
+      <c r="W15">
+        <v>0.1907682674668709</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>-0.2592805371933509</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.08824148653075749</v>
+      </c>
+      <c r="C16">
+        <v>28.11482057475576</v>
+      </c>
+      <c r="D16">
+        <v>31.09617123909942</v>
+      </c>
+      <c r="E16">
+        <v>2.060274490460415</v>
+      </c>
+      <c r="F16">
+        <v>6.941350664343656</v>
+      </c>
+      <c r="G16">
+        <v>3.96</v>
+      </c>
+      <c r="H16">
+        <v>44.7</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.487</v>
+      </c>
+      <c r="K16">
+        <v>0.794</v>
+      </c>
+      <c r="L16">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M16">
+        <v>1.27512611703993</v>
+      </c>
+      <c r="N16">
+        <v>-1.582126117039929</v>
+      </c>
+      <c r="O16">
+        <v>-0.2347875157687255</v>
+      </c>
+      <c r="P16">
+        <v>-1.347338601271204</v>
+      </c>
+      <c r="Q16">
+        <v>-0.5533386012712038</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07163326948844682</v>
+      </c>
+      <c r="T16">
+        <v>1.320620116280653</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>-0.03572885802524377</v>
+      </c>
+      <c r="W16">
+        <v>0.1902633912192373</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>-0.2407604988223973</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08998548653075748</v>
+      </c>
+      <c r="C17">
+        <v>26.94687254307166</v>
+      </c>
+      <c r="D17">
+        <v>30.42403396915415</v>
+      </c>
+      <c r="E17">
+        <v>2.556085252199246</v>
+      </c>
+      <c r="F17">
+        <v>7.437161426082486</v>
+      </c>
+      <c r="G17">
+        <v>3.96</v>
+      </c>
+      <c r="H17">
+        <v>44.7</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.487</v>
+      </c>
+      <c r="K17">
+        <v>0.794</v>
+      </c>
+      <c r="L17">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M17">
+        <v>1.366206553971353</v>
+      </c>
+      <c r="N17">
+        <v>-1.673206553971353</v>
+      </c>
+      <c r="O17">
+        <v>-0.2483038526093488</v>
+      </c>
+      <c r="P17">
+        <v>-1.424902701362004</v>
+      </c>
+      <c r="Q17">
+        <v>-0.6309027013620039</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07236660207066384</v>
+      </c>
+      <c r="T17">
+        <v>1.336156823531014</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>-0.03334693415689419</v>
+      </c>
+      <c r="W17">
+        <v>0.1898258318046215</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>-0.2247097989009041</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.09172948653075749</v>
+      </c>
+      <c r="C18">
+        <v>25.8073659696113</v>
+      </c>
+      <c r="D18">
+        <v>29.78033815743262</v>
+      </c>
+      <c r="E18">
+        <v>3.051896013938079</v>
+      </c>
+      <c r="F18">
+        <v>7.93297218782132</v>
+      </c>
+      <c r="G18">
+        <v>3.96</v>
+      </c>
+      <c r="H18">
+        <v>44.7</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.487</v>
+      </c>
+      <c r="K18">
+        <v>0.794</v>
+      </c>
+      <c r="L18">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M18">
+        <v>1.457286990902776</v>
+      </c>
+      <c r="N18">
+        <v>-1.764286990902777</v>
+      </c>
+      <c r="O18">
+        <v>-0.261820189449972</v>
+      </c>
+      <c r="P18">
+        <v>-1.502466801452804</v>
+      </c>
+      <c r="Q18">
+        <v>-0.7084668014528044</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07311739495245746</v>
+      </c>
+      <c r="T18">
+        <v>1.352063452382573</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>-0.0312627507720883</v>
+      </c>
+      <c r="W18">
+        <v>0.1894429673168326</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>-0.2106654364695977</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.09347348653075749</v>
+      </c>
+      <c r="C19">
+        <v>24.69453300899296</v>
+      </c>
+      <c r="D19">
+        <v>29.16331595855311</v>
+      </c>
+      <c r="E19">
+        <v>3.547706775676913</v>
+      </c>
+      <c r="F19">
+        <v>8.428782949560153</v>
+      </c>
+      <c r="G19">
+        <v>3.96</v>
+      </c>
+      <c r="H19">
+        <v>44.7</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.487</v>
+      </c>
+      <c r="K19">
+        <v>0.794</v>
+      </c>
+      <c r="L19">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M19">
+        <v>1.5483674278342</v>
+      </c>
+      <c r="N19">
+        <v>-1.8553674278342</v>
+      </c>
+      <c r="O19">
+        <v>-0.2753365262905954</v>
+      </c>
+      <c r="P19">
+        <v>-1.580030901543605</v>
+      </c>
+      <c r="Q19">
+        <v>-0.7860309015436049</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07388627922899309</v>
+      </c>
+      <c r="T19">
+        <v>1.368353373495616</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>-0.02942376543255369</v>
+      </c>
+      <c r="W19">
+        <v>0.1891051457099601</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>-0.1982733519713862</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.09521748653075748</v>
+      </c>
+      <c r="C20">
+        <v>23.60674935459381</v>
+      </c>
+      <c r="D20">
+        <v>28.57134306589279</v>
+      </c>
+      <c r="E20">
+        <v>4.043517537415743</v>
+      </c>
+      <c r="F20">
+        <v>8.924593711298984</v>
+      </c>
+      <c r="G20">
+        <v>3.96</v>
+      </c>
+      <c r="H20">
+        <v>44.7</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.487</v>
+      </c>
+      <c r="K20">
+        <v>0.794</v>
+      </c>
+      <c r="L20">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M20">
+        <v>1.639447864765623</v>
+      </c>
+      <c r="N20">
+        <v>-1.946447864765624</v>
+      </c>
+      <c r="O20">
+        <v>-0.2888528631312186</v>
+      </c>
+      <c r="P20">
+        <v>-1.657595001634405</v>
+      </c>
+      <c r="Q20">
+        <v>-0.8635950016344049</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07467391678056617</v>
+      </c>
+      <c r="T20">
+        <v>1.385040609757758</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>-0.02778911179741182</v>
+      </c>
+      <c r="W20">
+        <v>0.1888048598371846</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>-0.1872581657507535</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.09696148653075749</v>
+      </c>
+      <c r="C21">
+        <v>22.54251996023877</v>
+      </c>
+      <c r="D21">
+        <v>28.00292443327658</v>
+      </c>
+      <c r="E21">
+        <v>4.539328299154576</v>
+      </c>
+      <c r="F21">
+        <v>9.420404473037816</v>
+      </c>
+      <c r="G21">
+        <v>3.96</v>
+      </c>
+      <c r="H21">
+        <v>44.7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.487</v>
+      </c>
+      <c r="K21">
+        <v>0.794</v>
+      </c>
+      <c r="L21">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M21">
+        <v>1.730528301697047</v>
+      </c>
+      <c r="N21">
+        <v>-2.037528301697047</v>
+      </c>
+      <c r="O21">
+        <v>-0.3023691999718418</v>
+      </c>
+      <c r="P21">
+        <v>-1.735159101725205</v>
+      </c>
+      <c r="Q21">
+        <v>-0.941159101725205</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07548100217291884</v>
+      </c>
+      <c r="T21">
+        <v>1.402139876544891</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>-0.0263265269659691</v>
+      </c>
+      <c r="W21">
+        <v>0.1885361830036485</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>-0.1774024728165033</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.0987054865307575</v>
+      </c>
+      <c r="C22">
+        <v>21.50046643302006</v>
+      </c>
+      <c r="D22">
+        <v>27.45668166779671</v>
+      </c>
+      <c r="E22">
+        <v>5.03513906089341</v>
+      </c>
+      <c r="F22">
+        <v>9.916215234776651</v>
+      </c>
+      <c r="G22">
+        <v>3.96</v>
+      </c>
+      <c r="H22">
+        <v>44.7</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.487</v>
+      </c>
+      <c r="K22">
+        <v>0.794</v>
+      </c>
+      <c r="L22">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M22">
+        <v>1.821608738628471</v>
+      </c>
+      <c r="N22">
+        <v>-2.128608738628471</v>
+      </c>
+      <c r="O22">
+        <v>-0.3158855368124651</v>
+      </c>
+      <c r="P22">
+        <v>-1.812723201816006</v>
+      </c>
+      <c r="Q22">
+        <v>-1.018723201816006</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07630826470008034</v>
+      </c>
+      <c r="T22">
+        <v>1.419666625001702</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>-0.02501020061767064</v>
+      </c>
+      <c r="W22">
+        <v>0.1882943738534661</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>-0.1685323491756781</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1004494865307575</v>
+      </c>
+      <c r="C23">
+        <v>20.47931587342643</v>
+      </c>
+      <c r="D23">
+        <v>26.93134186994191</v>
+      </c>
+      <c r="E23">
+        <v>5.530949822632241</v>
+      </c>
+      <c r="F23">
+        <v>10.41202599651548</v>
+      </c>
+      <c r="G23">
+        <v>3.96</v>
+      </c>
+      <c r="H23">
+        <v>44.7</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.487</v>
+      </c>
+      <c r="K23">
+        <v>0.794</v>
+      </c>
+      <c r="L23">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M23">
+        <v>1.912689175559894</v>
+      </c>
+      <c r="N23">
+        <v>-2.219689175559894</v>
+      </c>
+      <c r="O23">
+        <v>-0.3294018736530883</v>
+      </c>
+      <c r="P23">
+        <v>-1.890287301906806</v>
+      </c>
+      <c r="Q23">
+        <v>-1.096287301906806</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07715647058235982</v>
+      </c>
+      <c r="T23">
+        <v>1.437637088609318</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>-0.02381923868349585</v>
+      </c>
+      <c r="W23">
+        <v>0.1880755941461582</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>-0.1605069992149315</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1021934865307575</v>
+      </c>
+      <c r="C24">
+        <v>19.47789097257755</v>
+      </c>
+      <c r="D24">
+        <v>26.42572773083187</v>
+      </c>
+      <c r="E24">
+        <v>6.026760584371074</v>
+      </c>
+      <c r="F24">
+        <v>10.90783675825431</v>
+      </c>
+      <c r="G24">
+        <v>3.96</v>
+      </c>
+      <c r="H24">
+        <v>44.7</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.487</v>
+      </c>
+      <c r="K24">
+        <v>0.794</v>
+      </c>
+      <c r="L24">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M24">
+        <v>2.003769612491317</v>
+      </c>
+      <c r="N24">
+        <v>-2.310769612491317</v>
+      </c>
+      <c r="O24">
+        <v>-0.3429182104937115</v>
+      </c>
+      <c r="P24">
+        <v>-1.967851401997606</v>
+      </c>
+      <c r="Q24">
+        <v>-1.173851401997606</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07802642533341574</v>
+      </c>
+      <c r="T24">
+        <v>1.456068333335079</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>-0.02273654601606422</v>
+      </c>
+      <c r="W24">
+        <v>0.187876703503151</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>-0.1532112265233438</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1039374865307575</v>
+      </c>
+      <c r="C25">
+        <v>18.49510120440038</v>
+      </c>
+      <c r="D25">
+        <v>25.93874872439352</v>
+      </c>
+      <c r="E25">
+        <v>6.522571346109906</v>
+      </c>
+      <c r="F25">
+        <v>11.40364751999315</v>
+      </c>
+      <c r="G25">
+        <v>3.96</v>
+      </c>
+      <c r="H25">
+        <v>44.7</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.487</v>
+      </c>
+      <c r="K25">
+        <v>0.794</v>
+      </c>
+      <c r="L25">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M25">
+        <v>2.094850049422741</v>
+      </c>
+      <c r="N25">
+        <v>-2.401850049422741</v>
+      </c>
+      <c r="O25">
+        <v>-0.3564345473343348</v>
+      </c>
+      <c r="P25">
+        <v>-2.045415502088406</v>
+      </c>
+      <c r="Q25">
+        <v>-1.251415502088406</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07891897631177178</v>
+      </c>
+      <c r="T25">
+        <v>1.47497831169008</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>-0.0217480005371049</v>
+      </c>
+      <c r="W25">
+        <v>0.1876951076986662</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>-0.1465498688484157</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1056814865307575</v>
+      </c>
+      <c r="C26">
+        <v>17.52993497405809</v>
+      </c>
+      <c r="D26">
+        <v>25.46939325579006</v>
+      </c>
+      <c r="E26">
+        <v>7.018382107848739</v>
+      </c>
+      <c r="F26">
+        <v>11.89945828173198</v>
+      </c>
+      <c r="G26">
+        <v>3.96</v>
+      </c>
+      <c r="H26">
+        <v>44.7</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.487</v>
+      </c>
+      <c r="K26">
+        <v>0.794</v>
+      </c>
+      <c r="L26">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M26">
+        <v>2.185930486354164</v>
+      </c>
+      <c r="N26">
+        <v>-2.492930486354164</v>
+      </c>
+      <c r="O26">
+        <v>-0.369950884174958</v>
+      </c>
+      <c r="P26">
+        <v>-2.122979602179206</v>
+      </c>
+      <c r="Q26">
+        <v>-1.328979602179206</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07983501547376877</v>
+      </c>
+      <c r="T26">
+        <v>1.494385921054423</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>-0.02084183384805887</v>
+      </c>
+      <c r="W26">
+        <v>0.1875286448778884</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>-0.1404436243130651</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1074254865307575</v>
+      </c>
+      <c r="C27">
+        <v>16.58145260366257</v>
+      </c>
+      <c r="D27">
+        <v>25.01672164713338</v>
+      </c>
+      <c r="E27">
+        <v>7.514192869587571</v>
+      </c>
+      <c r="F27">
+        <v>12.39526904347081</v>
+      </c>
+      <c r="G27">
+        <v>3.96</v>
+      </c>
+      <c r="H27">
+        <v>44.7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.487</v>
+      </c>
+      <c r="K27">
+        <v>0.794</v>
+      </c>
+      <c r="L27">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M27">
+        <v>2.277010923285588</v>
+      </c>
+      <c r="N27">
+        <v>-2.584010923285588</v>
+      </c>
+      <c r="O27">
+        <v>-0.3834672210155813</v>
+      </c>
+      <c r="P27">
+        <v>-2.200543702270007</v>
+      </c>
+      <c r="Q27">
+        <v>-1.406543702270007</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08077548234675234</v>
+      </c>
+      <c r="T27">
+        <v>1.514311066668482</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>-0.02000816049413651</v>
+      </c>
+      <c r="W27">
+        <v>0.1873754990827729</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>-0.1348258793405426</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1091694865307575</v>
+      </c>
+      <c r="C28">
+        <v>15.64878005292111</v>
+      </c>
+      <c r="D28">
+        <v>24.57985985813075</v>
+      </c>
+      <c r="E28">
+        <v>8.010003631326404</v>
+      </c>
+      <c r="F28">
+        <v>12.89107980520964</v>
+      </c>
+      <c r="G28">
+        <v>3.96</v>
+      </c>
+      <c r="H28">
+        <v>44.7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.487</v>
+      </c>
+      <c r="K28">
+        <v>0.794</v>
+      </c>
+      <c r="L28">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M28">
+        <v>2.368091360217011</v>
+      </c>
+      <c r="N28">
+        <v>-2.675091360217011</v>
+      </c>
+      <c r="O28">
+        <v>-0.3969835578562045</v>
+      </c>
+      <c r="P28">
+        <v>-2.278107802360807</v>
+      </c>
+      <c r="Q28">
+        <v>-1.484107802360807</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.08174136724333009</v>
+      </c>
+      <c r="T28">
+        <v>1.53477472973157</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>-0.01923861585974665</v>
+      </c>
+      <c r="W28">
+        <v>0.1872341337334354</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>-0.1296402685966755</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1109134865307575</v>
+      </c>
+      <c r="C29">
+        <v>14.73110328642113</v>
+      </c>
+      <c r="D29">
+        <v>24.15799385336961</v>
+      </c>
+      <c r="E29">
+        <v>8.505814393065236</v>
+      </c>
+      <c r="F29">
+        <v>13.38689056694848</v>
+      </c>
+      <c r="G29">
+        <v>3.96</v>
+      </c>
+      <c r="H29">
+        <v>44.7</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.487</v>
+      </c>
+      <c r="K29">
+        <v>0.794</v>
+      </c>
+      <c r="L29">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M29">
+        <v>2.459171797148435</v>
+      </c>
+      <c r="N29">
+        <v>-2.766171797148435</v>
+      </c>
+      <c r="O29">
+        <v>-0.4104998946968278</v>
+      </c>
+      <c r="P29">
+        <v>-2.355671902451607</v>
+      </c>
+      <c r="Q29">
+        <v>-1.561671902451607</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08273371473981407</v>
+      </c>
+      <c r="T29">
+        <v>1.555799041097756</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>-0.01852607453160788</v>
+      </c>
+      <c r="W29">
+        <v>0.1871032398914564</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>-0.1248387771671691</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1126574865307575</v>
+      </c>
+      <c r="C30">
+        <v>13.82766321117592</v>
+      </c>
+      <c r="D30">
+        <v>23.75036453986323</v>
+      </c>
+      <c r="E30">
+        <v>9.001625154804071</v>
+      </c>
+      <c r="F30">
+        <v>13.88270132868731</v>
+      </c>
+      <c r="G30">
+        <v>3.96</v>
+      </c>
+      <c r="H30">
+        <v>44.7</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.487</v>
+      </c>
+      <c r="K30">
+        <v>0.794</v>
+      </c>
+      <c r="L30">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M30">
+        <v>2.550252234079859</v>
+      </c>
+      <c r="N30">
+        <v>-2.857252234079859</v>
+      </c>
+      <c r="O30">
+        <v>-0.4240162315374511</v>
+      </c>
+      <c r="P30">
+        <v>-2.433236002542408</v>
+      </c>
+      <c r="Q30">
+        <v>-1.639236002542408</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.0837536274445337</v>
+      </c>
+      <c r="T30">
+        <v>1.577407361113002</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>-0.01786442901262188</v>
+      </c>
+      <c r="W30">
+        <v>0.1869816956096187</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>-0.1203802494111987</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1144014865307575</v>
+      </c>
+      <c r="C31">
+        <v>12.93775111819285</v>
+      </c>
+      <c r="D31">
+        <v>23.35626320861899</v>
+      </c>
+      <c r="E31">
+        <v>9.4974359165429</v>
+      </c>
+      <c r="F31">
+        <v>14.37851209042614</v>
+      </c>
+      <c r="G31">
+        <v>3.96</v>
+      </c>
+      <c r="H31">
+        <v>44.7</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.487</v>
+      </c>
+      <c r="K31">
+        <v>0.794</v>
+      </c>
+      <c r="L31">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M31">
+        <v>2.641332671011282</v>
+      </c>
+      <c r="N31">
+        <v>-2.948332671011282</v>
+      </c>
+      <c r="O31">
+        <v>-0.4375325683780742</v>
+      </c>
+      <c r="P31">
+        <v>-2.510800102633207</v>
+      </c>
+      <c r="Q31">
+        <v>-1.716800102633207</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08480227008459755</v>
+      </c>
+      <c r="T31">
+        <v>1.599624366199101</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>-0.0172484142190832</v>
+      </c>
+      <c r="W31">
+        <v>0.1868685336920456</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>-0.1162292063280539</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1161454865307575</v>
+      </c>
+      <c r="C32">
+        <v>12.0607045704753</v>
+      </c>
+      <c r="D32">
+        <v>22.97502742264027</v>
+      </c>
+      <c r="E32">
+        <v>9.993246678281732</v>
+      </c>
+      <c r="F32">
+        <v>14.87432285216497</v>
+      </c>
+      <c r="G32">
+        <v>3.96</v>
+      </c>
+      <c r="H32">
+        <v>44.7</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.487</v>
+      </c>
+      <c r="K32">
+        <v>0.794</v>
+      </c>
+      <c r="L32">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M32">
+        <v>2.732413107942706</v>
+      </c>
+      <c r="N32">
+        <v>-3.039413107942706</v>
+      </c>
+      <c r="O32">
+        <v>-0.4510489052186975</v>
+      </c>
+      <c r="P32">
+        <v>-2.588364202724008</v>
+      </c>
+      <c r="Q32">
+        <v>-1.794364202724008</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08588087394294897</v>
+      </c>
+      <c r="T32">
+        <v>1.622476142859088</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>-0.01667346707844709</v>
+      </c>
+      <c r="W32">
+        <v>0.1867629159023108</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>-0.1123548994504522</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1178894865307575</v>
+      </c>
+      <c r="C33">
+        <v>11.1959036872689</v>
+      </c>
+      <c r="D33">
+        <v>22.60603730117271</v>
+      </c>
+      <c r="E33">
+        <v>10.48905744002057</v>
+      </c>
+      <c r="F33">
+        <v>15.37013361390381</v>
+      </c>
+      <c r="G33">
+        <v>3.96</v>
+      </c>
+      <c r="H33">
+        <v>44.7</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.487</v>
+      </c>
+      <c r="K33">
+        <v>0.794</v>
+      </c>
+      <c r="L33">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M33">
+        <v>2.823493544874129</v>
+      </c>
+      <c r="N33">
+        <v>-3.130493544874129</v>
+      </c>
+      <c r="O33">
+        <v>-0.4645652420593208</v>
+      </c>
+      <c r="P33">
+        <v>-2.665928302814808</v>
+      </c>
+      <c r="Q33">
+        <v>-1.871928302814808</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08699074168125256</v>
+      </c>
+      <c r="T33">
+        <v>1.645990289857046</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>-0.01613561330172299</v>
+      </c>
+      <c r="W33">
+        <v>0.1866641121635265</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>-0.1087305478552762</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1196334865307575</v>
+      </c>
+      <c r="C34">
+        <v>10.34276778070874</v>
+      </c>
+      <c r="D34">
+        <v>22.24871215635138</v>
+      </c>
+      <c r="E34">
+        <v>10.9848682017594</v>
+      </c>
+      <c r="F34">
+        <v>15.86594437564264</v>
+      </c>
+      <c r="G34">
+        <v>3.96</v>
+      </c>
+      <c r="H34">
+        <v>44.7</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.487</v>
+      </c>
+      <c r="K34">
+        <v>0.794</v>
+      </c>
+      <c r="L34">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M34">
+        <v>2.914573981805553</v>
+      </c>
+      <c r="N34">
+        <v>-3.221573981805553</v>
+      </c>
+      <c r="O34">
+        <v>-0.478081578899944</v>
+      </c>
+      <c r="P34">
+        <v>-2.743492402905609</v>
+      </c>
+      <c r="Q34">
+        <v>-1.949492402905609</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.0881332525883298</v>
+      </c>
+      <c r="T34">
+        <v>1.670196029413767</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>-0.01563137538604415</v>
+      </c>
+      <c r="W34">
+        <v>0.1865714836584163</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>-0.1053327182347987</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1213774865307575</v>
+      </c>
+      <c r="C35">
+        <v>9.500752306482632</v>
+      </c>
+      <c r="D35">
+        <v>21.9025074438641</v>
+      </c>
+      <c r="E35">
+        <v>11.48067896349823</v>
+      </c>
+      <c r="F35">
+        <v>16.36175513738147</v>
+      </c>
+      <c r="G35">
+        <v>3.96</v>
+      </c>
+      <c r="H35">
+        <v>44.7</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.487</v>
+      </c>
+      <c r="K35">
+        <v>0.794</v>
+      </c>
+      <c r="L35">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M35">
+        <v>3.005654418736976</v>
+      </c>
+      <c r="N35">
+        <v>-3.312654418736976</v>
+      </c>
+      <c r="O35">
+        <v>-0.4915979157405673</v>
+      </c>
+      <c r="P35">
+        <v>-2.821056502996409</v>
+      </c>
+      <c r="Q35">
+        <v>-2.027056502996409</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08930986829860339</v>
+      </c>
+      <c r="T35">
+        <v>1.695124328360241</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>-0.01515769734404281</v>
+      </c>
+      <c r="W35">
+        <v>0.1864844690021007</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>-0.1021408176822292</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1231214865307575</v>
+      </c>
+      <c r="C36">
+        <v>8.669346094830424</v>
+      </c>
+      <c r="D36">
+        <v>21.56691199395073</v>
+      </c>
+      <c r="E36">
+        <v>11.97648972523707</v>
+      </c>
+      <c r="F36">
+        <v>16.85756589912031</v>
+      </c>
+      <c r="G36">
+        <v>3.96</v>
+      </c>
+      <c r="H36">
+        <v>44.7</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.487</v>
+      </c>
+      <c r="K36">
+        <v>0.794</v>
+      </c>
+      <c r="L36">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M36">
+        <v>3.0967348556684</v>
+      </c>
+      <c r="N36">
+        <v>-3.4037348556684</v>
+      </c>
+      <c r="O36">
+        <v>-0.5051142525811906</v>
+      </c>
+      <c r="P36">
+        <v>-2.89862060308721</v>
+      </c>
+      <c r="Q36">
+        <v>-2.10462060308721</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09052213903040041</v>
+      </c>
+      <c r="T36">
+        <v>1.720808030305093</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>-0.01471188271627684</v>
+      </c>
+      <c r="W36">
+        <v>0.1864025728549801</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>-0.09913667598569309</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1248654865307575</v>
+      </c>
+      <c r="C37">
+        <v>7.848068832265337</v>
+      </c>
+      <c r="D37">
+        <v>21.24144549312447</v>
+      </c>
+      <c r="E37">
+        <v>12.4723004869759</v>
+      </c>
+      <c r="F37">
+        <v>17.35337666085914</v>
+      </c>
+      <c r="G37">
+        <v>3.96</v>
+      </c>
+      <c r="H37">
+        <v>44.7</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.487</v>
+      </c>
+      <c r="K37">
+        <v>0.794</v>
+      </c>
+      <c r="L37">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M37">
+        <v>3.187815292599824</v>
+      </c>
+      <c r="N37">
+        <v>-3.494815292599823</v>
+      </c>
+      <c r="O37">
+        <v>-0.5186305894218138</v>
+      </c>
+      <c r="P37">
+        <v>-2.97618470317801</v>
+      </c>
+      <c r="Q37">
+        <v>-2.182184703178009</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09177171040009886</v>
+      </c>
+      <c r="T37">
+        <v>1.747282000002095</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>-0.01429154321009751</v>
+      </c>
+      <c r="W37">
+        <v>0.1863253564876949</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>-0.09630419952895886</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1266094865307575</v>
+      </c>
+      <c r="C38">
+        <v>7.036468767925676</v>
+      </c>
+      <c r="D38">
+        <v>20.92565619052364</v>
+      </c>
+      <c r="E38">
+        <v>12.96811124871473</v>
+      </c>
+      <c r="F38">
+        <v>17.84918742259797</v>
+      </c>
+      <c r="G38">
+        <v>3.96</v>
+      </c>
+      <c r="H38">
+        <v>44.7</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.487</v>
+      </c>
+      <c r="K38">
+        <v>0.794</v>
+      </c>
+      <c r="L38">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M38">
+        <v>3.278895729531247</v>
+      </c>
+      <c r="N38">
+        <v>-3.585895729531247</v>
+      </c>
+      <c r="O38">
+        <v>-0.5321469262624371</v>
+      </c>
+      <c r="P38">
+        <v>-3.05374880326881</v>
+      </c>
+      <c r="Q38">
+        <v>-2.25974880326881</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09306033087510042</v>
+      </c>
+      <c r="T38">
+        <v>1.774583281252127</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>-0.01389455589870591</v>
+      </c>
+      <c r="W38">
+        <v>0.1862524299185923</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>-0.09362908287537675</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1283534865307575</v>
+      </c>
+      <c r="C39">
+        <v>6.234120621522809</v>
+      </c>
+      <c r="D39">
+        <v>20.61911880585961</v>
+      </c>
+      <c r="E39">
+        <v>13.46392201045356</v>
+      </c>
+      <c r="F39">
+        <v>18.3449981843368</v>
+      </c>
+      <c r="G39">
+        <v>3.96</v>
+      </c>
+      <c r="H39">
+        <v>44.7</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.487</v>
+      </c>
+      <c r="K39">
+        <v>0.794</v>
+      </c>
+      <c r="L39">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M39">
+        <v>3.369976166462671</v>
+      </c>
+      <c r="N39">
+        <v>-3.676976166462671</v>
+      </c>
+      <c r="O39">
+        <v>-0.5456632631030603</v>
+      </c>
+      <c r="P39">
+        <v>-3.13131290335961</v>
+      </c>
+      <c r="Q39">
+        <v>-2.33731290335961</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09438985993660995</v>
+      </c>
+      <c r="T39">
+        <v>1.802751269843431</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>-0.01351902736090305</v>
+      </c>
+      <c r="W39">
+        <v>0.1861834453261979</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>-0.09109856712198816</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1300974865307575</v>
+      </c>
+      <c r="C40">
+        <v>5.440623672511666</v>
+      </c>
+      <c r="D40">
+        <v>20.3214326185873</v>
+      </c>
+      <c r="E40">
+        <v>13.95973277219239</v>
+      </c>
+      <c r="F40">
+        <v>18.84080894607563</v>
+      </c>
+      <c r="G40">
+        <v>3.96</v>
+      </c>
+      <c r="H40">
+        <v>44.7</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.487</v>
+      </c>
+      <c r="K40">
+        <v>0.794</v>
+      </c>
+      <c r="L40">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M40">
+        <v>3.461056603394094</v>
+      </c>
+      <c r="N40">
+        <v>-3.768056603394094</v>
+      </c>
+      <c r="O40">
+        <v>-0.5591795999436835</v>
+      </c>
+      <c r="P40">
+        <v>-3.20887700345041</v>
+      </c>
+      <c r="Q40">
+        <v>-2.41487700345041</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.09576227703236173</v>
+      </c>
+      <c r="T40">
+        <v>1.831827903228003</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>-0.01316326348298455</v>
+      </c>
+      <c r="W40">
+        <v>0.1861180915018243</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>-0.08870123640825156</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1318414865307575</v>
+      </c>
+      <c r="C41">
+        <v>4.655600012429861</v>
+      </c>
+      <c r="D41">
+        <v>20.03221972024433</v>
+      </c>
+      <c r="E41">
+        <v>14.45554353393123</v>
+      </c>
+      <c r="F41">
+        <v>19.33661970781447</v>
+      </c>
+      <c r="G41">
+        <v>3.96</v>
+      </c>
+      <c r="H41">
+        <v>44.7</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.487</v>
+      </c>
+      <c r="K41">
+        <v>0.794</v>
+      </c>
+      <c r="L41">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M41">
+        <v>3.552137040325518</v>
+      </c>
+      <c r="N41">
+        <v>-3.859137040325518</v>
+      </c>
+      <c r="O41">
+        <v>-0.5726959367843069</v>
+      </c>
+      <c r="P41">
+        <v>-3.286441103541211</v>
+      </c>
+      <c r="Q41">
+        <v>-2.492441103541211</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.09717969140994143</v>
+      </c>
+      <c r="T41">
+        <v>1.861857868854691</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>-0.01282574390649776</v>
+      </c>
+      <c r="W41">
+        <v>0.1860560891556237</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>-0.08642684573111703</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1335854865307575</v>
+      </c>
+      <c r="C42">
+        <v>3.878692944378063</v>
+      </c>
+      <c r="D42">
+        <v>19.75112341393136</v>
+      </c>
+      <c r="E42">
+        <v>14.95135429567006</v>
+      </c>
+      <c r="F42">
+        <v>19.8324304695533</v>
+      </c>
+      <c r="G42">
+        <v>3.96</v>
+      </c>
+      <c r="H42">
+        <v>44.7</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.487</v>
+      </c>
+      <c r="K42">
+        <v>0.794</v>
+      </c>
+      <c r="L42">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M42">
+        <v>3.643217477256941</v>
+      </c>
+      <c r="N42">
+        <v>-3.950217477256941</v>
+      </c>
+      <c r="O42">
+        <v>-0.5862122736249301</v>
+      </c>
+      <c r="P42">
+        <v>-3.364005203632011</v>
+      </c>
+      <c r="Q42">
+        <v>-2.570005203632011</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.09864435293344044</v>
+      </c>
+      <c r="T42">
+        <v>1.892888833335603</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>-0.01250510030883532</v>
+      </c>
+      <c r="W42">
+        <v>0.185997186926733</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>-0.08426617458783903</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1353294865307575</v>
+      </c>
+      <c r="C43">
+        <v>3.109565515388592</v>
+      </c>
+      <c r="D43">
+        <v>19.47780674668072</v>
+      </c>
+      <c r="E43">
+        <v>15.44716505740889</v>
+      </c>
+      <c r="F43">
+        <v>20.32824123129213</v>
+      </c>
+      <c r="G43">
+        <v>3.96</v>
+      </c>
+      <c r="H43">
+        <v>44.7</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.487</v>
+      </c>
+      <c r="K43">
+        <v>0.794</v>
+      </c>
+      <c r="L43">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M43">
+        <v>3.734297914188365</v>
+      </c>
+      <c r="N43">
+        <v>-4.041297914188365</v>
+      </c>
+      <c r="O43">
+        <v>-0.5997286104655534</v>
+      </c>
+      <c r="P43">
+        <v>-3.441569303722812</v>
+      </c>
+      <c r="Q43">
+        <v>-2.647569303722812</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1001586640001089</v>
+      </c>
+      <c r="T43">
+        <v>1.924971694917562</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>-0.01220009786227836</v>
+      </c>
+      <c r="W43">
+        <v>0.1859411579773005</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>-0.08221090203691617</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1370734865307575</v>
+      </c>
+      <c r="C44">
+        <v>2.347899168985609</v>
+      </c>
+      <c r="D44">
+        <v>19.21195116201657</v>
+      </c>
+      <c r="E44">
+        <v>15.94297581914772</v>
+      </c>
+      <c r="F44">
+        <v>20.82405199303096</v>
+      </c>
+      <c r="G44">
+        <v>3.96</v>
+      </c>
+      <c r="H44">
+        <v>44.7</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.487</v>
+      </c>
+      <c r="K44">
+        <v>0.794</v>
+      </c>
+      <c r="L44">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M44">
+        <v>3.825378351119788</v>
+      </c>
+      <c r="N44">
+        <v>-4.132378351119788</v>
+      </c>
+      <c r="O44">
+        <v>-0.6132449473061766</v>
+      </c>
+      <c r="P44">
+        <v>-3.519133403813612</v>
+      </c>
+      <c r="Q44">
+        <v>-2.725133403813612</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.101725192689766</v>
+      </c>
+      <c r="T44">
+        <v>1.958160862071313</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>-0.01190961934174792</v>
+      </c>
+      <c r="W44">
+        <v>0.1858877970730791</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>-0.08025349960746597</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1388174865307575</v>
+      </c>
+      <c r="C45">
+        <v>1.593392506607906</v>
+      </c>
+      <c r="D45">
+        <v>18.9532552613777</v>
+      </c>
+      <c r="E45">
+        <v>16.43878658088656</v>
+      </c>
+      <c r="F45">
+        <v>21.3198627547698</v>
+      </c>
+      <c r="G45">
+        <v>3.96</v>
+      </c>
+      <c r="H45">
+        <v>44.7</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.487</v>
+      </c>
+      <c r="K45">
+        <v>0.794</v>
+      </c>
+      <c r="L45">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M45">
+        <v>3.916458788051212</v>
+      </c>
+      <c r="N45">
+        <v>-4.223458788051212</v>
+      </c>
+      <c r="O45">
+        <v>-0.6267612841467999</v>
+      </c>
+      <c r="P45">
+        <v>-3.596697503904412</v>
+      </c>
+      <c r="Q45">
+        <v>-2.802697503904412</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1033466872983583</v>
+      </c>
+      <c r="T45">
+        <v>1.992514561405897</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>-0.01163265145007937</v>
+      </c>
+      <c r="W45">
+        <v>0.1858369180713796</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>-0.0783871391514781</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1405614865307575</v>
+      </c>
+      <c r="C46">
+        <v>0.8457601477694752</v>
+      </c>
+      <c r="D46">
+        <v>18.7014336642781</v>
+      </c>
+      <c r="E46">
+        <v>16.93459734262539</v>
+      </c>
+      <c r="F46">
+        <v>21.81567351650863</v>
+      </c>
+      <c r="G46">
+        <v>3.96</v>
+      </c>
+      <c r="H46">
+        <v>44.7</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.487</v>
+      </c>
+      <c r="K46">
+        <v>0.794</v>
+      </c>
+      <c r="L46">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M46">
+        <v>4.007539224982635</v>
+      </c>
+      <c r="N46">
+        <v>-4.314539224982635</v>
+      </c>
+      <c r="O46">
+        <v>-0.640277620987423</v>
+      </c>
+      <c r="P46">
+        <v>-3.674261603995212</v>
+      </c>
+      <c r="Q46">
+        <v>-2.880261603995212</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1050260924286862</v>
+      </c>
+      <c r="T46">
+        <v>2.02809517857386</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>-0.01136827300803211</v>
+      </c>
+      <c r="W46">
+        <v>0.1857883517515755</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>-0.07660561326167192</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1423054865307575</v>
+      </c>
+      <c r="C47">
+        <v>0.1047316798952025</v>
+      </c>
+      <c r="D47">
+        <v>18.45621595814266</v>
+      </c>
+      <c r="E47">
+        <v>17.43040810436422</v>
+      </c>
+      <c r="F47">
+        <v>22.31148427824746</v>
+      </c>
+      <c r="G47">
+        <v>3.96</v>
+      </c>
+      <c r="H47">
+        <v>44.7</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.487</v>
+      </c>
+      <c r="K47">
+        <v>0.794</v>
+      </c>
+      <c r="L47">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M47">
+        <v>4.098619661914059</v>
+      </c>
+      <c r="N47">
+        <v>-4.405619661914059</v>
+      </c>
+      <c r="O47">
+        <v>-0.6537939578280464</v>
+      </c>
+      <c r="P47">
+        <v>-3.751825704086013</v>
+      </c>
+      <c r="Q47">
+        <v>-2.957825704086013</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1067665668364805</v>
+      </c>
+      <c r="T47">
+        <v>2.064969636366112</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>-0.01111564471896473</v>
+      </c>
+      <c r="W47">
+        <v>0.1857419439348738</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>-0.07490326630030153</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1440494865307575</v>
+      </c>
+      <c r="C48">
+        <v>-0.62994931029273</v>
+      </c>
+      <c r="D48">
+        <v>18.21734572969356</v>
+      </c>
+      <c r="E48">
+        <v>17.92621886610305</v>
+      </c>
+      <c r="F48">
+        <v>22.80729503998629</v>
+      </c>
+      <c r="G48">
+        <v>3.96</v>
+      </c>
+      <c r="H48">
+        <v>44.7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.487</v>
+      </c>
+      <c r="K48">
+        <v>0.794</v>
+      </c>
+      <c r="L48">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M48">
+        <v>4.189700098845482</v>
+      </c>
+      <c r="N48">
+        <v>-4.496700098845483</v>
+      </c>
+      <c r="O48">
+        <v>-0.6673102946686696</v>
+      </c>
+      <c r="P48">
+        <v>-3.829389804176813</v>
+      </c>
+      <c r="Q48">
+        <v>-3.035389804176813</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1085715032593783</v>
+      </c>
+      <c r="T48">
+        <v>2.103209814817336</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>-0.01087400026855245</v>
+      </c>
+      <c r="W48">
+        <v>0.1856975538493331</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>-0.07327493442420807</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1457934865307575</v>
+      </c>
+      <c r="C49">
+        <v>-1.358526131131583</v>
+      </c>
+      <c r="D49">
+        <v>17.98457967059354</v>
+      </c>
+      <c r="E49">
+        <v>18.42202962784189</v>
+      </c>
+      <c r="F49">
+        <v>23.30310580172513</v>
+      </c>
+      <c r="G49">
+        <v>3.96</v>
+      </c>
+      <c r="H49">
+        <v>44.7</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.487</v>
+      </c>
+      <c r="K49">
+        <v>0.794</v>
+      </c>
+      <c r="L49">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M49">
+        <v>4.280780535776906</v>
+      </c>
+      <c r="N49">
+        <v>-4.587780535776907</v>
+      </c>
+      <c r="O49">
+        <v>-0.680826631509293</v>
+      </c>
+      <c r="P49">
+        <v>-3.906953904267614</v>
+      </c>
+      <c r="Q49">
+        <v>-3.112953904267614</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1104445504906873</v>
+      </c>
+      <c r="T49">
+        <v>2.142893018870494</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>-0.01064263856071091</v>
+      </c>
+      <c r="W49">
+        <v>0.1856550527036026</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>-0.07171589326624606</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1475374865307575</v>
+      </c>
+      <c r="C50">
+        <v>-2.081229812675751</v>
+      </c>
+      <c r="D50">
+        <v>17.75768675078821</v>
+      </c>
+      <c r="E50">
+        <v>18.91784038958072</v>
+      </c>
+      <c r="F50">
+        <v>23.79891656346396</v>
+      </c>
+      <c r="G50">
+        <v>3.96</v>
+      </c>
+      <c r="H50">
+        <v>44.7</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.487</v>
+      </c>
+      <c r="K50">
+        <v>0.794</v>
+      </c>
+      <c r="L50">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M50">
+        <v>4.371860972708329</v>
+      </c>
+      <c r="N50">
+        <v>-4.678860972708329</v>
+      </c>
+      <c r="O50">
+        <v>-0.694342968349916</v>
+      </c>
+      <c r="P50">
+        <v>-3.984518004358413</v>
+      </c>
+      <c r="Q50">
+        <v>-3.190518004358413</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1123896380001236</v>
+      </c>
+      <c r="T50">
+        <v>2.184102500002618</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>-0.01042091692402943</v>
+      </c>
+      <c r="W50">
+        <v>0.1856143224389442</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>-0.07022181215653256</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1492814865307575</v>
+      </c>
+      <c r="C51">
+        <v>-2.798279871559565</v>
+      </c>
+      <c r="D51">
+        <v>17.53644745364322</v>
+      </c>
+      <c r="E51">
+        <v>19.41365115131955</v>
+      </c>
+      <c r="F51">
+        <v>24.29472732520279</v>
+      </c>
+      <c r="G51">
+        <v>3.96</v>
+      </c>
+      <c r="H51">
+        <v>44.7</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.487</v>
+      </c>
+      <c r="K51">
+        <v>0.794</v>
+      </c>
+      <c r="L51">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M51">
+        <v>4.462941409639752</v>
+      </c>
+      <c r="N51">
+        <v>-4.769941409639753</v>
+      </c>
+      <c r="O51">
+        <v>-0.7078593051905393</v>
+      </c>
+      <c r="P51">
+        <v>-4.062082104449213</v>
+      </c>
+      <c r="Q51">
+        <v>-3.268082104449213</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1144110034511064</v>
+      </c>
+      <c r="T51">
+        <v>2.226928039218356</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>-0.01020824515006965</v>
+      </c>
+      <c r="W51">
+        <v>0.1855752546340678</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>-0.06878871394925645</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1510254865307575</v>
+      </c>
+      <c r="C52">
+        <v>-3.509885019387994</v>
+      </c>
+      <c r="D52">
+        <v>17.32065306755363</v>
+      </c>
+      <c r="E52">
+        <v>19.90946191305838</v>
+      </c>
+      <c r="F52">
+        <v>24.79053808694162</v>
+      </c>
+      <c r="G52">
+        <v>3.96</v>
+      </c>
+      <c r="H52">
+        <v>44.7</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.487</v>
+      </c>
+      <c r="K52">
+        <v>0.794</v>
+      </c>
+      <c r="L52">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M52">
+        <v>4.554021846571176</v>
+      </c>
+      <c r="N52">
+        <v>-4.861021846571177</v>
+      </c>
+      <c r="O52">
+        <v>-0.7213756420311627</v>
+      </c>
+      <c r="P52">
+        <v>-4.139646204540014</v>
+      </c>
+      <c r="Q52">
+        <v>-3.345646204540014</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1165132235201285</v>
+      </c>
+      <c r="T52">
+        <v>2.271466600002723</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>-0.01000408024706826</v>
+      </c>
+      <c r="W52">
+        <v>0.1855377495413864</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>-0.0674129396702714</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1527694865307575</v>
+      </c>
+      <c r="C53">
+        <v>-4.216243819460665</v>
+      </c>
+      <c r="D53">
+        <v>17.11010502921979</v>
+      </c>
+      <c r="E53">
+        <v>20.40527267479722</v>
+      </c>
+      <c r="F53">
+        <v>25.28634884868046</v>
+      </c>
+      <c r="G53">
+        <v>3.96</v>
+      </c>
+      <c r="H53">
+        <v>44.7</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.487</v>
+      </c>
+      <c r="K53">
+        <v>0.794</v>
+      </c>
+      <c r="L53">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M53">
+        <v>4.645102283502601</v>
+      </c>
+      <c r="N53">
+        <v>-4.952102283502601</v>
+      </c>
+      <c r="O53">
+        <v>-0.734891978871786</v>
+      </c>
+      <c r="P53">
+        <v>-4.217210304630814</v>
+      </c>
+      <c r="Q53">
+        <v>-3.423210304630814</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1187012484899271</v>
+      </c>
+      <c r="T53">
+        <v>2.317823061227269</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>-0.009807921810851229</v>
+      </c>
+      <c r="W53">
+        <v>0.1855017152366534</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>-0.06609111732379547</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1545134865307575</v>
+      </c>
+      <c r="C54">
+        <v>-4.917545296172715</v>
+      </c>
+      <c r="D54">
+        <v>16.90461431424657</v>
+      </c>
+      <c r="E54">
+        <v>20.90108343653605</v>
+      </c>
+      <c r="F54">
+        <v>25.78215961041929</v>
+      </c>
+      <c r="G54">
+        <v>3.96</v>
+      </c>
+      <c r="H54">
+        <v>44.7</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.487</v>
+      </c>
+      <c r="K54">
+        <v>0.794</v>
+      </c>
+      <c r="L54">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M54">
+        <v>4.736182720434023</v>
+      </c>
+      <c r="N54">
+        <v>-5.043182720434023</v>
+      </c>
+      <c r="O54">
+        <v>-0.7484083157124091</v>
+      </c>
+      <c r="P54">
+        <v>-4.294774404721615</v>
+      </c>
+      <c r="Q54">
+        <v>-3.500774404721615</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1209804411668006</v>
+      </c>
+      <c r="T54">
+        <v>2.366111041669503</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>-0.009619307929873323</v>
+      </c>
+      <c r="W54">
+        <v>0.1854670668667177</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>-0.06482013429833788</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1562574865307575</v>
+      </c>
+      <c r="C55">
+        <v>-5.613969501023721</v>
+      </c>
+      <c r="D55">
+        <v>16.7040008711344</v>
+      </c>
+      <c r="E55">
+        <v>21.39689419827488</v>
+      </c>
+      <c r="F55">
+        <v>26.27797037215812</v>
+      </c>
+      <c r="G55">
+        <v>3.96</v>
+      </c>
+      <c r="H55">
+        <v>44.7</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.487</v>
+      </c>
+      <c r="K55">
+        <v>0.794</v>
+      </c>
+      <c r="L55">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M55">
+        <v>4.827263157365447</v>
+      </c>
+      <c r="N55">
+        <v>-5.134263157365448</v>
+      </c>
+      <c r="O55">
+        <v>-0.7619246525530324</v>
+      </c>
+      <c r="P55">
+        <v>-4.372338504812415</v>
+      </c>
+      <c r="Q55">
+        <v>-3.578338504812415</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1233566207660942</v>
+      </c>
+      <c r="T55">
+        <v>2.416453829790131</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>-0.009437811553837976</v>
+      </c>
+      <c r="W55">
+        <v>0.18543372598244</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>-0.06359711289648229</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1580014865307575</v>
+      </c>
+      <c r="C56">
+        <v>-6.305688038797005</v>
+      </c>
+      <c r="D56">
+        <v>16.50809309509995</v>
+      </c>
+      <c r="E56">
+        <v>21.89270496001371</v>
+      </c>
+      <c r="F56">
+        <v>26.77378113389695</v>
+      </c>
+      <c r="G56">
+        <v>3.96</v>
+      </c>
+      <c r="H56">
+        <v>44.7</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.487</v>
+      </c>
+      <c r="K56">
+        <v>0.794</v>
+      </c>
+      <c r="L56">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M56">
+        <v>4.918343594296871</v>
+      </c>
+      <c r="N56">
+        <v>-5.225343594296871</v>
+      </c>
+      <c r="O56">
+        <v>-0.7754409893936557</v>
+      </c>
+      <c r="P56">
+        <v>-4.449902604903215</v>
+      </c>
+      <c r="Q56">
+        <v>-3.655902604903215</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1258361125218788</v>
+      </c>
+      <c r="T56">
+        <v>2.468985434785568</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>-0.009263037265803941</v>
+      </c>
+      <c r="W56">
+        <v>0.1854016199457282</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>-0.06241938858358465</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1597454865307575</v>
+      </c>
+      <c r="C57">
+        <v>-6.992864557141434</v>
+      </c>
+      <c r="D57">
+        <v>16.31672733849435</v>
+      </c>
+      <c r="E57">
+        <v>22.38851572175255</v>
+      </c>
+      <c r="F57">
+        <v>27.26959189563579</v>
+      </c>
+      <c r="G57">
+        <v>3.96</v>
+      </c>
+      <c r="H57">
+        <v>44.7</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.487</v>
+      </c>
+      <c r="K57">
+        <v>0.794</v>
+      </c>
+      <c r="L57">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M57">
+        <v>5.009424031228295</v>
+      </c>
+      <c r="N57">
+        <v>-5.316424031228295</v>
+      </c>
+      <c r="O57">
+        <v>-0.7889573262342791</v>
+      </c>
+      <c r="P57">
+        <v>-4.527466704994016</v>
+      </c>
+      <c r="Q57">
+        <v>-3.733466704994016</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1284258039112539</v>
+      </c>
+      <c r="T57">
+        <v>2.523851777780804</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>-0.009094618406425685</v>
+      </c>
+      <c r="W57">
+        <v>0.1853706814012604</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>-0.06128449060933749</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1614894865307575</v>
+      </c>
+      <c r="C58">
+        <v>-7.675655202491232</v>
+      </c>
+      <c r="D58">
+        <v>16.12974745488339</v>
+      </c>
+      <c r="E58">
+        <v>22.88432648349138</v>
+      </c>
+      <c r="F58">
+        <v>27.76540265737462</v>
+      </c>
+      <c r="G58">
+        <v>3.96</v>
+      </c>
+      <c r="H58">
+        <v>44.7</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.487</v>
+      </c>
+      <c r="K58">
+        <v>0.794</v>
+      </c>
+      <c r="L58">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M58">
+        <v>5.100504468159718</v>
+      </c>
+      <c r="N58">
+        <v>-5.407504468159718</v>
+      </c>
+      <c r="O58">
+        <v>-0.8024736630749022</v>
+      </c>
+      <c r="P58">
+        <v>-4.605030805084816</v>
+      </c>
+      <c r="Q58">
+        <v>-3.811030805084816</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1311332085456006</v>
+      </c>
+      <c r="T58">
+        <v>2.58121204545764</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>-0.008932214506310942</v>
+      </c>
+      <c r="W58">
+        <v>0.1853408478048093</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>-0.06019012470559937</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1632334865307575</v>
+      </c>
+      <c r="C59">
+        <v>-8.354209044993688</v>
+      </c>
+      <c r="D59">
+        <v>15.94700437411976</v>
+      </c>
+      <c r="E59">
+        <v>23.38013724523021</v>
+      </c>
+      <c r="F59">
+        <v>28.26121341911345</v>
+      </c>
+      <c r="G59">
+        <v>3.96</v>
+      </c>
+      <c r="H59">
+        <v>44.7</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.487</v>
+      </c>
+      <c r="K59">
+        <v>0.794</v>
+      </c>
+      <c r="L59">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M59">
+        <v>5.191584905091141</v>
+      </c>
+      <c r="N59">
+        <v>-5.498584905091142</v>
+      </c>
+      <c r="O59">
+        <v>-0.8159899999155255</v>
+      </c>
+      <c r="P59">
+        <v>-4.682594905175616</v>
+      </c>
+      <c r="Q59">
+        <v>-3.888594905175616</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1339665389768936</v>
+      </c>
+      <c r="T59">
+        <v>2.641240232561306</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>-0.008775508988656365</v>
+      </c>
+      <c r="W59">
+        <v>0.1853120610012162</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>-0.05913415760550111</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1649774865307575</v>
+      </c>
+      <c r="C60">
+        <v>-9.028668474874845</v>
+      </c>
+      <c r="D60">
+        <v>15.76835570597743</v>
+      </c>
+      <c r="E60">
+        <v>23.87594800696904</v>
+      </c>
+      <c r="F60">
+        <v>28.75702418085228</v>
+      </c>
+      <c r="G60">
+        <v>3.96</v>
+      </c>
+      <c r="H60">
+        <v>44.7</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.487</v>
+      </c>
+      <c r="K60">
+        <v>0.794</v>
+      </c>
+      <c r="L60">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M60">
+        <v>5.282665342022564</v>
+      </c>
+      <c r="N60">
+        <v>-5.589665342022564</v>
+      </c>
+      <c r="O60">
+        <v>-0.8295063367561486</v>
+      </c>
+      <c r="P60">
+        <v>-4.760159005266416</v>
+      </c>
+      <c r="Q60">
+        <v>-3.966159005266416</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1369347899049149</v>
+      </c>
+      <c r="T60">
+        <v>2.704126904765146</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>-0.008624207109541602</v>
+      </c>
+      <c r="W60">
+        <v>0.1852842668460228</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>-0.05811460316402695</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1667214865307575</v>
+      </c>
+      <c r="C61">
+        <v>-9.699169572458342</v>
+      </c>
+      <c r="D61">
+        <v>15.59366537013277</v>
+      </c>
+      <c r="E61">
+        <v>24.37175876870787</v>
+      </c>
+      <c r="F61">
+        <v>29.25283494259111</v>
+      </c>
+      <c r="G61">
+        <v>3.96</v>
+      </c>
+      <c r="H61">
+        <v>44.7</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.487</v>
+      </c>
+      <c r="K61">
+        <v>0.794</v>
+      </c>
+      <c r="L61">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M61">
+        <v>5.373745778953988</v>
+      </c>
+      <c r="N61">
+        <v>-5.680745778953988</v>
+      </c>
+      <c r="O61">
+        <v>-0.8430226735967719</v>
+      </c>
+      <c r="P61">
+        <v>-4.837723105357217</v>
+      </c>
+      <c r="Q61">
+        <v>-4.043723105357216</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1400478335611323</v>
+      </c>
+      <c r="T61">
+        <v>2.770081219515515</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>-0.008478034107684962</v>
+      </c>
+      <c r="W61">
+        <v>0.1852574148655817</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>-0.05712960989006044</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1684654865307575</v>
+      </c>
+      <c r="C62">
+        <v>-10.36584245385813</v>
+      </c>
+      <c r="D62">
+        <v>15.42280325047182</v>
+      </c>
+      <c r="E62">
+        <v>24.8675695304467</v>
+      </c>
+      <c r="F62">
+        <v>29.74864570432995</v>
+      </c>
+      <c r="G62">
+        <v>3.96</v>
+      </c>
+      <c r="H62">
+        <v>44.7</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.487</v>
+      </c>
+      <c r="K62">
+        <v>0.794</v>
+      </c>
+      <c r="L62">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M62">
+        <v>5.464826215885411</v>
+      </c>
+      <c r="N62">
+        <v>-5.771826215885412</v>
+      </c>
+      <c r="O62">
+        <v>-0.8565390104373951</v>
+      </c>
+      <c r="P62">
+        <v>-4.915287205448017</v>
+      </c>
+      <c r="Q62">
+        <v>-4.121287205448017</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1433165294001607</v>
+      </c>
+      <c r="T62">
+        <v>2.839333250003404</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>-0.008336733539223547</v>
+      </c>
+      <c r="W62">
+        <v>0.1852314579511554</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>-0.05617744972522609</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1702094865307575</v>
+      </c>
+      <c r="C63">
+        <v>-11.02881159419064</v>
+      </c>
+      <c r="D63">
+        <v>15.25564487187814</v>
+      </c>
+      <c r="E63">
+        <v>25.36338029218554</v>
+      </c>
+      <c r="F63">
+        <v>30.24445646606878</v>
+      </c>
+      <c r="G63">
+        <v>3.96</v>
+      </c>
+      <c r="H63">
+        <v>44.7</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.487</v>
+      </c>
+      <c r="K63">
+        <v>0.794</v>
+      </c>
+      <c r="L63">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M63">
+        <v>5.555906652816835</v>
+      </c>
+      <c r="N63">
+        <v>-5.862906652816835</v>
+      </c>
+      <c r="O63">
+        <v>-0.8700553472780184</v>
+      </c>
+      <c r="P63">
+        <v>-4.992851305538816</v>
+      </c>
+      <c r="Q63">
+        <v>-4.198851305538817</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1467528506668315</v>
+      </c>
+      <c r="T63">
+        <v>2.912136666670158</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>-0.008200065776285457</v>
+      </c>
+      <c r="W63">
+        <v>0.1852063520831037</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>-0.05525650792645198</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1719534865307575</v>
+      </c>
+      <c r="C64">
+        <v>-11.68819612999379</v>
+      </c>
+      <c r="D64">
+        <v>15.09207109781383</v>
+      </c>
+      <c r="E64">
+        <v>25.85919105392437</v>
+      </c>
+      <c r="F64">
+        <v>30.74026722780761</v>
+      </c>
+      <c r="G64">
+        <v>3.96</v>
+      </c>
+      <c r="H64">
+        <v>44.7</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.487</v>
+      </c>
+      <c r="K64">
+        <v>0.794</v>
+      </c>
+      <c r="L64">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M64">
+        <v>5.646987089748259</v>
+      </c>
+      <c r="N64">
+        <v>-5.953987089748259</v>
+      </c>
+      <c r="O64">
+        <v>-0.8835716841186417</v>
+      </c>
+      <c r="P64">
+        <v>-5.070415405629618</v>
+      </c>
+      <c r="Q64">
+        <v>-4.276415405629617</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1503700309475375</v>
+      </c>
+      <c r="T64">
+        <v>2.988771842108846</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>-0.008067806650861497</v>
+      </c>
+      <c r="W64">
+        <v>0.1851820560817632</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>-0.05436527392763812</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1736974865307575</v>
+      </c>
+      <c r="C65">
+        <v>-12.34411014239675</v>
+      </c>
+      <c r="D65">
+        <v>14.93196784714969</v>
+      </c>
+      <c r="E65">
+        <v>26.3550018156632</v>
+      </c>
+      <c r="F65">
+        <v>31.23607798954644</v>
+      </c>
+      <c r="G65">
+        <v>3.96</v>
+      </c>
+      <c r="H65">
+        <v>44.7</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.487</v>
+      </c>
+      <c r="K65">
+        <v>0.794</v>
+      </c>
+      <c r="L65">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M65">
+        <v>5.738067526679682</v>
+      </c>
+      <c r="N65">
+        <v>-6.045067526679683</v>
+      </c>
+      <c r="O65">
+        <v>-0.8970880209592649</v>
+      </c>
+      <c r="P65">
+        <v>-5.147979505720418</v>
+      </c>
+      <c r="Q65">
+        <v>-4.353979505720417</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1541827344866601</v>
+      </c>
+      <c r="T65">
+        <v>3.069549459463139</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>-0.007939746227831949</v>
+      </c>
+      <c r="W65">
+        <v>0.1851585313820527</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>-0.05350233307164398</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1754414865307575</v>
+      </c>
+      <c r="C66">
+        <v>-12.99666292245507</v>
+      </c>
+      <c r="D66">
+        <v>14.77522582883021</v>
+      </c>
+      <c r="E66">
+        <v>26.85081257740204</v>
+      </c>
+      <c r="F66">
+        <v>31.73188875128528</v>
+      </c>
+      <c r="G66">
+        <v>3.96</v>
+      </c>
+      <c r="H66">
+        <v>44.7</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.487</v>
+      </c>
+      <c r="K66">
+        <v>0.794</v>
+      </c>
+      <c r="L66">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M66">
+        <v>5.829147963611105</v>
+      </c>
+      <c r="N66">
+        <v>-6.136147963611106</v>
+      </c>
+      <c r="O66">
+        <v>-0.9106043577998881</v>
+      </c>
+      <c r="P66">
+        <v>-5.225543605811218</v>
+      </c>
+      <c r="Q66">
+        <v>-4.431543605811218</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1582072548890674</v>
+      </c>
+      <c r="T66">
+        <v>3.154814722226004</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>-0.007815687693022075</v>
+      </c>
+      <c r="W66">
+        <v>0.1851357418292081</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>-0.05266635911739947</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1771854865307575</v>
+      </c>
+      <c r="C67">
+        <v>-13.64595921994781</v>
+      </c>
+      <c r="D67">
+        <v>14.6217402930763</v>
+      </c>
+      <c r="E67">
+        <v>27.34662333914087</v>
+      </c>
+      <c r="F67">
+        <v>32.22769951302411</v>
+      </c>
+      <c r="G67">
+        <v>3.96</v>
+      </c>
+      <c r="H67">
+        <v>44.7</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.487</v>
+      </c>
+      <c r="K67">
+        <v>0.794</v>
+      </c>
+      <c r="L67">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M67">
+        <v>5.92022840054253</v>
+      </c>
+      <c r="N67">
+        <v>-6.22722840054253</v>
+      </c>
+      <c r="O67">
+        <v>-0.9241206946405115</v>
+      </c>
+      <c r="P67">
+        <v>-5.303107705902018</v>
+      </c>
+      <c r="Q67">
+        <v>-4.509107705902018</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1624617478858979</v>
+      </c>
+      <c r="T67">
+        <v>3.244952285718176</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>-0.007695446343898659</v>
+      </c>
+      <c r="W67">
+        <v>0.1851136534933742</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>-0.05185610743867031</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1789294865307575</v>
+      </c>
+      <c r="C68">
+        <v>-14.29209947682723</v>
+      </c>
+      <c r="D68">
+        <v>14.47141079793571</v>
+      </c>
+      <c r="E68">
+        <v>27.8424341008797</v>
+      </c>
+      <c r="F68">
+        <v>32.72351027476294</v>
+      </c>
+      <c r="G68">
+        <v>3.96</v>
+      </c>
+      <c r="H68">
+        <v>44.7</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.487</v>
+      </c>
+      <c r="K68">
+        <v>0.794</v>
+      </c>
+      <c r="L68">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M68">
+        <v>6.011308837473953</v>
+      </c>
+      <c r="N68">
+        <v>-6.318308837473953</v>
+      </c>
+      <c r="O68">
+        <v>-0.9376370314811348</v>
+      </c>
+      <c r="P68">
+        <v>-5.380671805992819</v>
+      </c>
+      <c r="Q68">
+        <v>-4.586671805992818</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1669665051766596</v>
+      </c>
+      <c r="T68">
+        <v>3.340392058827534</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>-0.007578848672021406</v>
+      </c>
+      <c r="W68">
+        <v>0.1850922345010503</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>-0.05107040884111469</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1806734865307575</v>
+      </c>
+      <c r="C69">
+        <v>-14.9351800464139</v>
+      </c>
+      <c r="D69">
+        <v>14.32414099008787</v>
+      </c>
+      <c r="E69">
+        <v>28.33824486261853</v>
+      </c>
+      <c r="F69">
+        <v>33.21932103650177</v>
+      </c>
+      <c r="G69">
+        <v>3.96</v>
+      </c>
+      <c r="H69">
+        <v>44.7</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.487</v>
+      </c>
+      <c r="K69">
+        <v>0.794</v>
+      </c>
+      <c r="L69">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M69">
+        <v>6.102389274405376</v>
+      </c>
+      <c r="N69">
+        <v>-6.409389274405377</v>
+      </c>
+      <c r="O69">
+        <v>-0.9511533683217579</v>
+      </c>
+      <c r="P69">
+        <v>-5.458235906083619</v>
+      </c>
+      <c r="Q69">
+        <v>-4.664235906083618</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1717442780608008</v>
+      </c>
+      <c r="T69">
+        <v>3.441616060610187</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>-0.007465731527662877</v>
+      </c>
+      <c r="W69">
+        <v>0.1850714548816317</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>-0.05030816393303827</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1824174865307575</v>
+      </c>
+      <c r="C70">
+        <v>-15.57529339934288</v>
+      </c>
+      <c r="D70">
+        <v>14.17983839889773</v>
+      </c>
+      <c r="E70">
+        <v>28.83405562435737</v>
+      </c>
+      <c r="F70">
+        <v>33.71513179824061</v>
+      </c>
+      <c r="G70">
+        <v>3.96</v>
+      </c>
+      <c r="H70">
+        <v>44.7</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.487</v>
+      </c>
+      <c r="K70">
+        <v>0.794</v>
+      </c>
+      <c r="L70">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M70">
+        <v>6.1934697113368</v>
+      </c>
+      <c r="N70">
+        <v>-6.500469711336801</v>
+      </c>
+      <c r="O70">
+        <v>-0.9646697051623813</v>
+      </c>
+      <c r="P70">
+        <v>-5.535800006174419</v>
+      </c>
+      <c r="Q70">
+        <v>-4.741800006174419</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1768206617502008</v>
+      </c>
+      <c r="T70">
+        <v>3.549166562504255</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>-0.007355941358138422</v>
+      </c>
+      <c r="W70">
+        <v>0.18505128642749</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>-0.04956833799284666</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1841614865307575</v>
+      </c>
+      <c r="C71">
+        <v>-16.21252831718557</v>
+      </c>
+      <c r="D71">
+        <v>14.03841424279388</v>
+      </c>
+      <c r="E71">
+        <v>29.3298663860962</v>
+      </c>
+      <c r="F71">
+        <v>34.21094255997944</v>
+      </c>
+      <c r="G71">
+        <v>3.96</v>
+      </c>
+      <c r="H71">
+        <v>44.7</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.487</v>
+      </c>
+      <c r="K71">
+        <v>0.794</v>
+      </c>
+      <c r="L71">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M71">
+        <v>6.284550148268224</v>
+      </c>
+      <c r="N71">
+        <v>-6.591550148268224</v>
+      </c>
+      <c r="O71">
+        <v>-0.9781860420030045</v>
+      </c>
+      <c r="P71">
+        <v>-5.61336410626522</v>
+      </c>
+      <c r="Q71">
+        <v>-4.819364106265219</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1822245540647235</v>
+      </c>
+      <c r="T71">
+        <v>3.663655806456006</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>-0.007249333512368301</v>
+      </c>
+      <c r="W71">
+        <v>0.185031702566222</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>-0.04884995628280531</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1859054865307575</v>
+      </c>
+      <c r="C72">
+        <v>-16.84697007459944</v>
+      </c>
+      <c r="D72">
+        <v>13.89978324711884</v>
+      </c>
+      <c r="E72">
+        <v>29.82567714783503</v>
+      </c>
+      <c r="F72">
+        <v>34.70675332171827</v>
+      </c>
+      <c r="G72">
+        <v>3.96</v>
+      </c>
+      <c r="H72">
+        <v>44.7</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.487</v>
+      </c>
+      <c r="K72">
+        <v>0.794</v>
+      </c>
+      <c r="L72">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M72">
+        <v>6.375630585199647</v>
+      </c>
+      <c r="N72">
+        <v>-6.682630585199647</v>
+      </c>
+      <c r="O72">
+        <v>-0.9917023788436277</v>
+      </c>
+      <c r="P72">
+        <v>-5.69092820635602</v>
+      </c>
+      <c r="Q72">
+        <v>-4.896928206356019</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1879887058668809</v>
+      </c>
+      <c r="T72">
+        <v>3.785777666671206</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>-0.007145771605048754</v>
+      </c>
+      <c r="W72">
+        <v>0.1850126782438475</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>-0.04815209976447954</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1876494865307575</v>
+      </c>
+      <c r="C73">
+        <v>-17.47870061079074</v>
+      </c>
+      <c r="D73">
+        <v>13.76386347266637</v>
+      </c>
+      <c r="E73">
+        <v>30.32148790957386</v>
+      </c>
+      <c r="F73">
+        <v>35.2025640834571</v>
+      </c>
+      <c r="G73">
+        <v>3.96</v>
+      </c>
+      <c r="H73">
+        <v>44.7</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.487</v>
+      </c>
+      <c r="K73">
+        <v>0.794</v>
+      </c>
+      <c r="L73">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M73">
+        <v>6.46671102213107</v>
+      </c>
+      <c r="N73">
+        <v>-6.773711022131071</v>
+      </c>
+      <c r="O73">
+        <v>-1.005218715684251</v>
+      </c>
+      <c r="P73">
+        <v>-5.76849230644682</v>
+      </c>
+      <c r="Q73">
+        <v>-4.97449230644682</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1941503853795319</v>
+      </c>
+      <c r="T73">
+        <v>3.916321724142625</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>-0.00704512693455511</v>
+      </c>
+      <c r="W73">
+        <v>0.1849941898178778</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>-0.0474739011762475</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1893934865307575</v>
+      </c>
+      <c r="C74">
+        <v>-18.10779869101474</v>
+      </c>
+      <c r="D74">
+        <v>13.6305761541812</v>
+      </c>
+      <c r="E74">
+        <v>30.8172986713127</v>
+      </c>
+      <c r="F74">
+        <v>35.69837484519594</v>
+      </c>
+      <c r="G74">
+        <v>3.96</v>
+      </c>
+      <c r="H74">
+        <v>44.7</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.487</v>
+      </c>
+      <c r="K74">
+        <v>0.794</v>
+      </c>
+      <c r="L74">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M74">
+        <v>6.557791459062494</v>
+      </c>
+      <c r="N74">
+        <v>-6.864791459062494</v>
+      </c>
+      <c r="O74">
+        <v>-1.018735052524874</v>
+      </c>
+      <c r="P74">
+        <v>-5.84605640653762</v>
+      </c>
+      <c r="Q74">
+        <v>-5.05205640653762</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2007521848573723</v>
+      </c>
+      <c r="T74">
+        <v>4.056190357147719</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>-0.006947277949352956</v>
+      </c>
+      <c r="W74">
+        <v>0.1849762149592961</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>-0.04681454143768837</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1911374865307575</v>
+      </c>
+      <c r="C75">
+        <v>-18.73434005878222</v>
+      </c>
+      <c r="D75">
+        <v>13.49984554815254</v>
+      </c>
+      <c r="E75">
+        <v>31.31310943305153</v>
+      </c>
+      <c r="F75">
+        <v>36.19418560693477</v>
+      </c>
+      <c r="G75">
+        <v>3.96</v>
+      </c>
+      <c r="H75">
+        <v>44.7</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.487</v>
+      </c>
+      <c r="K75">
+        <v>0.794</v>
+      </c>
+      <c r="L75">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M75">
+        <v>6.648871895993917</v>
+      </c>
+      <c r="N75">
+        <v>-6.955871895993917</v>
+      </c>
+      <c r="O75">
+        <v>-1.032251389365497</v>
+      </c>
+      <c r="P75">
+        <v>-5.92362050662842</v>
+      </c>
+      <c r="Q75">
+        <v>-5.12962050662842</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2078430065187565</v>
+      </c>
+      <c r="T75">
+        <v>4.206419629634672</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>-0.006852109758265929</v>
+      </c>
+      <c r="W75">
+        <v>0.1849587325625935</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>-0.04617324634950082</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1928814865307575</v>
+      </c>
+      <c r="C76">
+        <v>-19.35839757939036</v>
+      </c>
+      <c r="D76">
+        <v>13.37159878928324</v>
+      </c>
+      <c r="E76">
+        <v>31.80892019479036</v>
+      </c>
+      <c r="F76">
+        <v>36.6899963686736</v>
+      </c>
+      <c r="G76">
+        <v>3.96</v>
+      </c>
+      <c r="H76">
+        <v>44.7</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.487</v>
+      </c>
+      <c r="K76">
+        <v>0.794</v>
+      </c>
+      <c r="L76">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M76">
+        <v>6.739952332925341</v>
+      </c>
+      <c r="N76">
+        <v>-7.046952332925342</v>
+      </c>
+      <c r="O76">
+        <v>-1.045767726206121</v>
+      </c>
+      <c r="P76">
+        <v>-6.001184606719221</v>
+      </c>
+      <c r="Q76">
+        <v>-5.20718460671922</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2154792760002472</v>
+      </c>
+      <c r="T76">
+        <v>4.368205000005236</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>-0.006759513680451524</v>
+      </c>
+      <c r="W76">
+        <v>0.1849417226630989</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>-0.04554928356099408</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1946254865307575</v>
+      </c>
+      <c r="C77">
+        <v>-19.98004137534944</v>
+      </c>
+      <c r="D77">
+        <v>13.24576575506299</v>
+      </c>
+      <c r="E77">
+        <v>32.3047309565292</v>
+      </c>
+      <c r="F77">
+        <v>37.18580713041244</v>
+      </c>
+      <c r="G77">
+        <v>3.96</v>
+      </c>
+      <c r="H77">
+        <v>44.7</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.487</v>
+      </c>
+      <c r="K77">
+        <v>0.794</v>
+      </c>
+      <c r="L77">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M77">
+        <v>6.831032769856765</v>
+      </c>
+      <c r="N77">
+        <v>-7.138032769856765</v>
+      </c>
+      <c r="O77">
+        <v>-1.059284063046744</v>
+      </c>
+      <c r="P77">
+        <v>-6.078748706810021</v>
+      </c>
+      <c r="Q77">
+        <v>-5.284748706810021</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.223726447040257</v>
+      </c>
+      <c r="T77">
+        <v>4.542933200005446</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>-0.006669386831378837</v>
+      </c>
+      <c r="W77">
+        <v>0.1849251663609243</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>-0.04494195978018078</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1963694865307575</v>
+      </c>
+      <c r="C78">
+        <v>-20.59933895423433</v>
+      </c>
+      <c r="D78">
+        <v>13.12227893791693</v>
+      </c>
+      <c r="E78">
+        <v>32.80054171826802</v>
+      </c>
+      <c r="F78">
+        <v>37.68161789215127</v>
+      </c>
+      <c r="G78">
+        <v>3.96</v>
+      </c>
+      <c r="H78">
+        <v>44.7</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.487</v>
+      </c>
+      <c r="K78">
+        <v>0.794</v>
+      </c>
+      <c r="L78">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M78">
+        <v>6.922113206788188</v>
+      </c>
+      <c r="N78">
+        <v>-7.229113206788188</v>
+      </c>
+      <c r="O78">
+        <v>-1.072800399887367</v>
+      </c>
+      <c r="P78">
+        <v>-6.156312806900821</v>
+      </c>
+      <c r="Q78">
+        <v>-5.362312806900821</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2326608823336011</v>
+      </c>
+      <c r="T78">
+        <v>4.732222083339007</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>-0.006581631741492274</v>
+      </c>
+      <c r="W78">
+        <v>0.1849090457509121</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>-0.04435061820412578</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1981134865307575</v>
+      </c>
+      <c r="C79">
+        <v>-21.21635532945036</v>
+      </c>
+      <c r="D79">
+        <v>13.00107332443975</v>
+      </c>
+      <c r="E79">
+        <v>33.29635248000686</v>
+      </c>
+      <c r="F79">
+        <v>38.1774286538901</v>
+      </c>
+      <c r="G79">
+        <v>3.96</v>
+      </c>
+      <c r="H79">
+        <v>44.7</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.487</v>
+      </c>
+      <c r="K79">
+        <v>0.794</v>
+      </c>
+      <c r="L79">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M79">
+        <v>7.013193643719612</v>
+      </c>
+      <c r="N79">
+        <v>-7.320193643719612</v>
+      </c>
+      <c r="O79">
+        <v>-1.08631673672799</v>
+      </c>
+      <c r="P79">
+        <v>-6.233876906991622</v>
+      </c>
+      <c r="Q79">
+        <v>-5.439876906991621</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2423722250437577</v>
+      </c>
+      <c r="T79">
+        <v>4.937970869571137</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>-0.006496156004589776</v>
+      </c>
+      <c r="W79">
+        <v>0.1848933438580432</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>-0.04377463614952681</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1998574865307575</v>
+      </c>
+      <c r="C80">
+        <v>-21.8311531343677</v>
+      </c>
+      <c r="D80">
+        <v>12.88208628126124</v>
+      </c>
+      <c r="E80">
+        <v>33.7921632417457</v>
+      </c>
+      <c r="F80">
+        <v>38.67323941562893</v>
+      </c>
+      <c r="G80">
+        <v>3.96</v>
+      </c>
+      <c r="H80">
+        <v>44.7</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.487</v>
+      </c>
+      <c r="K80">
+        <v>0.794</v>
+      </c>
+      <c r="L80">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M80">
+        <v>7.104274080651035</v>
+      </c>
+      <c r="N80">
+        <v>-7.411274080651036</v>
+      </c>
+      <c r="O80">
+        <v>-1.099833073568614</v>
+      </c>
+      <c r="P80">
+        <v>-6.311441007082422</v>
+      </c>
+      <c r="Q80">
+        <v>-5.517441007082422</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2529664170912012</v>
+      </c>
+      <c r="T80">
+        <v>5.162424090915279</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>-0.006412871953248881</v>
+      </c>
+      <c r="W80">
+        <v>0.1848780445778118</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>-0.04321342286555852</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2016014865307575</v>
+      </c>
+      <c r="C81">
+        <v>-22.44379273024517</v>
+      </c>
+      <c r="D81">
+        <v>12.76525744712259</v>
+      </c>
+      <c r="E81">
+        <v>34.28797400348452</v>
+      </c>
+      <c r="F81">
+        <v>39.16905017736777</v>
+      </c>
+      <c r="G81">
+        <v>3.96</v>
+      </c>
+      <c r="H81">
+        <v>44.7</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.487</v>
+      </c>
+      <c r="K81">
+        <v>0.794</v>
+      </c>
+      <c r="L81">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M81">
+        <v>7.195354517582459</v>
+      </c>
+      <c r="N81">
+        <v>-7.502354517582459</v>
+      </c>
+      <c r="O81">
+        <v>-1.113349410409237</v>
+      </c>
+      <c r="P81">
+        <v>-6.389005107173222</v>
+      </c>
+      <c r="Q81">
+        <v>-5.595005107173222</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2645695798098298</v>
+      </c>
+      <c r="T81">
+        <v>5.408253809530294</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>-0.00633169635890396</v>
+      </c>
+      <c r="W81">
+        <v>0.1848631326211307</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>-0.04266641751282996</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2033454865307575</v>
+      </c>
+      <c r="C82">
+        <v>-23.05433230833427</v>
+      </c>
+      <c r="D82">
+        <v>12.65052863077233</v>
+      </c>
+      <c r="E82">
+        <v>34.78378476522336</v>
+      </c>
+      <c r="F82">
+        <v>39.6648609391066</v>
+      </c>
+      <c r="G82">
+        <v>3.96</v>
+      </c>
+      <c r="H82">
+        <v>44.7</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.487</v>
+      </c>
+      <c r="K82">
+        <v>0.794</v>
+      </c>
+      <c r="L82">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M82">
+        <v>7.286434954513883</v>
+      </c>
+      <c r="N82">
+        <v>-7.593434954513883</v>
+      </c>
+      <c r="O82">
+        <v>-1.12686574724986</v>
+      </c>
+      <c r="P82">
+        <v>-6.466569207264023</v>
+      </c>
+      <c r="Q82">
+        <v>-5.672569207264022</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2773330588003213</v>
+      </c>
+      <c r="T82">
+        <v>5.678666500006809</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>-0.006252550154417659</v>
+      </c>
+      <c r="W82">
+        <v>0.1848485934633665</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>-0.04213308729391962</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2050894865307575</v>
+      </c>
+      <c r="C83">
+        <v>-23.66282798652596</v>
+      </c>
+      <c r="D83">
+        <v>12.53784371431947</v>
+      </c>
+      <c r="E83">
+        <v>35.2795955269622</v>
+      </c>
+      <c r="F83">
+        <v>40.16067170084543</v>
+      </c>
+      <c r="G83">
+        <v>3.96</v>
+      </c>
+      <c r="H83">
+        <v>44.7</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.487</v>
+      </c>
+      <c r="K83">
+        <v>0.794</v>
+      </c>
+      <c r="L83">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M83">
+        <v>7.377515391445306</v>
+      </c>
+      <c r="N83">
+        <v>-7.684515391445307</v>
+      </c>
+      <c r="O83">
+        <v>-1.140382084090483</v>
+      </c>
+      <c r="P83">
+        <v>-6.544133307354823</v>
+      </c>
+      <c r="Q83">
+        <v>-5.750133307354822</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2914400618950751</v>
+      </c>
+      <c r="T83">
+        <v>5.977543684217693</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>-0.006175358177202626</v>
+      </c>
+      <c r="W83">
+        <v>0.1848344132971521</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>-0.04161292572238962</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2068334865307575</v>
+      </c>
+      <c r="C84">
+        <v>-24.26933390087817</v>
+      </c>
+      <c r="D84">
+        <v>12.4271485617061</v>
+      </c>
+      <c r="E84">
+        <v>35.77540628870102</v>
+      </c>
+      <c r="F84">
+        <v>40.65648246258426</v>
+      </c>
+      <c r="G84">
+        <v>3.96</v>
+      </c>
+      <c r="H84">
+        <v>44.7</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.487</v>
+      </c>
+      <c r="K84">
+        <v>0.794</v>
+      </c>
+      <c r="L84">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M84">
+        <v>7.46859582837673</v>
+      </c>
+      <c r="N84">
+        <v>-7.77559582837673</v>
+      </c>
+      <c r="O84">
+        <v>-1.153898420931107</v>
+      </c>
+      <c r="P84">
+        <v>-6.621697407445623</v>
+      </c>
+      <c r="Q84">
+        <v>-5.827697407445623</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3071145097781349</v>
+      </c>
+      <c r="T84">
+        <v>6.30962944445201</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>-0.00610004893113918</v>
+      </c>
+      <c r="W84">
+        <v>0.1848205789886503</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>-0.04110545101845808</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2085774865307575</v>
+      </c>
+      <c r="C85">
+        <v>-24.87390229233684</v>
+      </c>
+      <c r="D85">
+        <v>12.31839093198625</v>
+      </c>
+      <c r="E85">
+        <v>36.27121705043986</v>
+      </c>
+      <c r="F85">
+        <v>41.1522932243231</v>
+      </c>
+      <c r="G85">
+        <v>3.96</v>
+      </c>
+      <c r="H85">
+        <v>44.7</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.487</v>
+      </c>
+      <c r="K85">
+        <v>0.794</v>
+      </c>
+      <c r="L85">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M85">
+        <v>7.559676265308153</v>
+      </c>
+      <c r="N85">
+        <v>-7.866676265308153</v>
+      </c>
+      <c r="O85">
+        <v>-1.16741475777173</v>
+      </c>
+      <c r="P85">
+        <v>-6.699261507536423</v>
+      </c>
+      <c r="Q85">
+        <v>-5.905261507536423</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3246330103533193</v>
+      </c>
+      <c r="T85">
+        <v>6.680784117655071</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>-0.006026554365703768</v>
+      </c>
+      <c r="W85">
+        <v>0.1848070780369798</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>-0.04061020462064535</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2103214865307575</v>
+      </c>
+      <c r="C86">
+        <v>-25.47658358894309</v>
+      </c>
+      <c r="D86">
+        <v>12.21152039711884</v>
+      </c>
+      <c r="E86">
+        <v>36.76702781217868</v>
+      </c>
+      <c r="F86">
+        <v>41.64810398606193</v>
+      </c>
+      <c r="G86">
+        <v>3.96</v>
+      </c>
+      <c r="H86">
+        <v>44.7</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.487</v>
+      </c>
+      <c r="K86">
+        <v>0.794</v>
+      </c>
+      <c r="L86">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M86">
+        <v>7.650756702239576</v>
+      </c>
+      <c r="N86">
+        <v>-7.957756702239577</v>
+      </c>
+      <c r="O86">
+        <v>-1.180931094612353</v>
+      </c>
+      <c r="P86">
+        <v>-6.776825607627224</v>
+      </c>
+      <c r="Q86">
+        <v>-5.982825607627223</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3443413235004016</v>
+      </c>
+      <c r="T86">
+        <v>7.098333125008509</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>-0.005954809670873962</v>
+      </c>
+      <c r="W86">
+        <v>0.1847938985365395</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>-0.04012674980373299</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2120654865307575</v>
+      </c>
+      <c r="C87">
+        <v>-26.07742648379766</v>
+      </c>
+      <c r="D87">
+        <v>12.1064882640031</v>
+      </c>
+      <c r="E87">
+        <v>37.26283857391752</v>
+      </c>
+      <c r="F87">
+        <v>42.14391474780076</v>
+      </c>
+      <c r="G87">
+        <v>3.96</v>
+      </c>
+      <c r="H87">
+        <v>44.7</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.487</v>
+      </c>
+      <c r="K87">
+        <v>0.794</v>
+      </c>
+      <c r="L87">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M87">
+        <v>7.741837139170999</v>
+      </c>
+      <c r="N87">
+        <v>-8.048837139170999</v>
+      </c>
+      <c r="O87">
+        <v>-1.194447431452976</v>
+      </c>
+      <c r="P87">
+        <v>-6.854389707718022</v>
+      </c>
+      <c r="Q87">
+        <v>-6.060389707718022</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3666774117337617</v>
+      </c>
+      <c r="T87">
+        <v>7.57155533334241</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>-0.005884753086510739</v>
+      </c>
+      <c r="W87">
+        <v>0.184781029141992</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>-0.03965467039427706</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2138094865307575</v>
+      </c>
+      <c r="C88">
+        <v>-26.67647800903645</v>
+      </c>
+      <c r="D88">
+        <v>12.00324750050314</v>
+      </c>
+      <c r="E88">
+        <v>37.75864933565636</v>
+      </c>
+      <c r="F88">
+        <v>42.63972550953959</v>
+      </c>
+      <c r="G88">
+        <v>3.96</v>
+      </c>
+      <c r="H88">
+        <v>44.7</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.487</v>
+      </c>
+      <c r="K88">
+        <v>0.794</v>
+      </c>
+      <c r="L88">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M88">
+        <v>7.832917576102424</v>
+      </c>
+      <c r="N88">
+        <v>-8.139917576102423</v>
+      </c>
+      <c r="O88">
+        <v>-1.2079637682936</v>
+      </c>
+      <c r="P88">
+        <v>-6.931953807808823</v>
+      </c>
+      <c r="Q88">
+        <v>-6.137953807808824</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3922043697147446</v>
+      </c>
+      <c r="T88">
+        <v>8.112380714295439</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>-0.005816325725039683</v>
+      </c>
+      <c r="W88">
+        <v>0.1847684590356898</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>-0.03919356957573905</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2155534865307575</v>
+      </c>
+      <c r="C89">
+        <v>-27.27378360605292</v>
+      </c>
+      <c r="D89">
+        <v>11.9017526652255</v>
+      </c>
+      <c r="E89">
+        <v>38.25446009739518</v>
+      </c>
+      <c r="F89">
+        <v>43.13553627127843</v>
+      </c>
+      <c r="G89">
+        <v>3.96</v>
+      </c>
+      <c r="H89">
+        <v>44.7</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.487</v>
+      </c>
+      <c r="K89">
+        <v>0.794</v>
+      </c>
+      <c r="L89">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M89">
+        <v>7.923998013033847</v>
+      </c>
+      <c r="N89">
+        <v>-8.230998013033847</v>
+      </c>
+      <c r="O89">
+        <v>-1.221480105134223</v>
+      </c>
+      <c r="P89">
+        <v>-7.009517907899625</v>
+      </c>
+      <c r="Q89">
+        <v>-6.215517907899624</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4216585520004943</v>
+      </c>
+      <c r="T89">
+        <v>8.736410000010473</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>-0.005749471406361067</v>
+      </c>
+      <c r="W89">
+        <v>0.1847561778973485</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>-0.03874306877601796</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2172974865307575</v>
+      </c>
+      <c r="C90">
+        <v>-27.86938719218766</v>
+      </c>
+      <c r="D90">
+        <v>11.8019598408296</v>
+      </c>
+      <c r="E90">
+        <v>38.75027085913402</v>
+      </c>
+      <c r="F90">
+        <v>43.63134703301726</v>
+      </c>
+      <c r="G90">
+        <v>3.96</v>
+      </c>
+      <c r="H90">
+        <v>44.7</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.487</v>
+      </c>
+      <c r="K90">
+        <v>0.794</v>
+      </c>
+      <c r="L90">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M90">
+        <v>8.015078449965269</v>
+      </c>
+      <c r="N90">
+        <v>-8.32207844996527</v>
+      </c>
+      <c r="O90">
+        <v>-1.234996441974846</v>
+      </c>
+      <c r="P90">
+        <v>-7.087082007990424</v>
+      </c>
+      <c r="Q90">
+        <v>-6.293082007990424</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4560217646672022</v>
+      </c>
+      <c r="T90">
+        <v>9.464444166678014</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>-0.005684136504016055</v>
+      </c>
+      <c r="W90">
+        <v>0.1847441758757878</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>-0.03830280663083596</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2190414865307575</v>
+      </c>
+      <c r="C91">
+        <v>-28.4633312240909</v>
+      </c>
+      <c r="D91">
+        <v>11.70382657066519</v>
+      </c>
+      <c r="E91">
+        <v>39.24608162087284</v>
+      </c>
+      <c r="F91">
+        <v>44.12715779475609</v>
+      </c>
+      <c r="G91">
+        <v>3.96</v>
+      </c>
+      <c r="H91">
+        <v>44.7</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.487</v>
+      </c>
+      <c r="K91">
+        <v>0.794</v>
+      </c>
+      <c r="L91">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M91">
+        <v>8.106158886896694</v>
+      </c>
+      <c r="N91">
+        <v>-8.413158886896694</v>
+      </c>
+      <c r="O91">
+        <v>-1.24851277881547</v>
+      </c>
+      <c r="P91">
+        <v>-7.164646108081224</v>
+      </c>
+      <c r="Q91">
+        <v>-6.370646108081225</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4966328341824024</v>
+      </c>
+      <c r="T91">
+        <v>10.32484818183056</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>-0.005620269801723739</v>
+      </c>
+      <c r="W91">
+        <v>0.1847324435625767</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>-0.03787243801700635</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2207854865307574</v>
+      </c>
+      <c r="C92">
+        <v>-29.0556567579499</v>
+      </c>
+      <c r="D92">
+        <v>11.60731179854503</v>
+      </c>
+      <c r="E92">
+        <v>39.74189238261168</v>
+      </c>
+      <c r="F92">
+        <v>44.62296855649492</v>
+      </c>
+      <c r="G92">
+        <v>3.96</v>
+      </c>
+      <c r="H92">
+        <v>44.7</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.487</v>
+      </c>
+      <c r="K92">
+        <v>0.794</v>
+      </c>
+      <c r="L92">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M92">
+        <v>8.197239323828118</v>
+      </c>
+      <c r="N92">
+        <v>-8.504239323828118</v>
+      </c>
+      <c r="O92">
+        <v>-1.262029115656093</v>
+      </c>
+      <c r="P92">
+        <v>-7.242210208172025</v>
+      </c>
+      <c r="Q92">
+        <v>-6.448210208172025</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5453661176006427</v>
+      </c>
+      <c r="T92">
+        <v>11.35733300001362</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>-0.005557822359482364</v>
+      </c>
+      <c r="W92">
+        <v>0.1847209719674369</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>-0.03745163315015065</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2225294865307575</v>
+      </c>
+      <c r="C93">
+        <v>-29.64640350676078</v>
+      </c>
+      <c r="D93">
+        <v>11.51237581147297</v>
+      </c>
+      <c r="E93">
+        <v>40.23770314435052</v>
+      </c>
+      <c r="F93">
+        <v>45.11877931823376</v>
+      </c>
+      <c r="G93">
+        <v>3.96</v>
+      </c>
+      <c r="H93">
+        <v>44.7</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.487</v>
+      </c>
+      <c r="K93">
+        <v>0.794</v>
+      </c>
+      <c r="L93">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M93">
+        <v>8.28831976075954</v>
+      </c>
+      <c r="N93">
+        <v>-8.595319760759541</v>
+      </c>
+      <c r="O93">
+        <v>-1.275545452496716</v>
+      </c>
+      <c r="P93">
+        <v>-7.319774308262825</v>
+      </c>
+      <c r="Q93">
+        <v>-6.525774308262825</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6049290195562698</v>
+      </c>
+      <c r="T93">
+        <v>12.61925888890402</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>-0.005496747388499042</v>
+      </c>
+      <c r="W93">
+        <v>0.1847097524952673</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>-0.03704007674190724</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2242734865307575</v>
+      </c>
+      <c r="C94">
+        <v>-30.23560989481252</v>
+      </c>
+      <c r="D94">
+        <v>11.41898018516007</v>
+      </c>
+      <c r="E94">
+        <v>40.73351390608934</v>
+      </c>
+      <c r="F94">
+        <v>45.61459007997259</v>
+      </c>
+      <c r="G94">
+        <v>3.96</v>
+      </c>
+      <c r="H94">
+        <v>44.7</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.487</v>
+      </c>
+      <c r="K94">
+        <v>0.794</v>
+      </c>
+      <c r="L94">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M94">
+        <v>8.379400197690964</v>
+      </c>
+      <c r="N94">
+        <v>-8.686400197690965</v>
+      </c>
+      <c r="O94">
+        <v>-1.289061789337339</v>
+      </c>
+      <c r="P94">
+        <v>-7.397338408353626</v>
+      </c>
+      <c r="Q94">
+        <v>-6.603338408353626</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6793826470008036</v>
+      </c>
+      <c r="T94">
+        <v>14.19666625001703</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>-0.005437000134276226</v>
+      </c>
+      <c r="W94">
+        <v>0.1846987769246665</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>-0.03663746721210392</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2260174865307575</v>
+      </c>
+      <c r="C95">
+        <v>-30.82331310954034</v>
+      </c>
+      <c r="D95">
+        <v>11.32708773217108</v>
+      </c>
+      <c r="E95">
+        <v>41.22932466782818</v>
+      </c>
+      <c r="F95">
+        <v>46.11040084171142</v>
+      </c>
+      <c r="G95">
+        <v>3.96</v>
+      </c>
+      <c r="H95">
+        <v>44.7</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.487</v>
+      </c>
+      <c r="K95">
+        <v>0.794</v>
+      </c>
+      <c r="L95">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M95">
+        <v>8.470480634622389</v>
+      </c>
+      <c r="N95">
+        <v>-8.777480634622389</v>
+      </c>
+      <c r="O95">
+        <v>-1.302578126177963</v>
+      </c>
+      <c r="P95">
+        <v>-7.474902508444426</v>
+      </c>
+      <c r="Q95">
+        <v>-6.680902508444426</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.77510873942949</v>
+      </c>
+      <c r="T95">
+        <v>16.22476142859089</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>-0.005378537767240997</v>
+      </c>
+      <c r="W95">
+        <v>0.1846880373878422</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>-0.03624351595175868</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2277614865307575</v>
+      </c>
+      <c r="C96">
+        <v>-31.40954915089533</v>
+      </c>
+      <c r="D96">
+        <v>11.23666245255492</v>
+      </c>
+      <c r="E96">
+        <v>41.72513542956702</v>
+      </c>
+      <c r="F96">
+        <v>46.60621160345026</v>
+      </c>
+      <c r="G96">
+        <v>3.96</v>
+      </c>
+      <c r="H96">
+        <v>44.7</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.487</v>
+      </c>
+      <c r="K96">
+        <v>0.794</v>
+      </c>
+      <c r="L96">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M96">
+        <v>8.561561071553813</v>
+      </c>
+      <c r="N96">
+        <v>-8.868561071553813</v>
+      </c>
+      <c r="O96">
+        <v>-1.316094463018586</v>
+      </c>
+      <c r="P96">
+        <v>-7.552466608535227</v>
+      </c>
+      <c r="Q96">
+        <v>-6.758466608535228</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9027435293344052</v>
+      </c>
+      <c r="T96">
+        <v>18.92888833335604</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>-0.005321319280355455</v>
+      </c>
+      <c r="W96">
+        <v>0.1846775263518013</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>-0.03585794663312303</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2295054865307575</v>
+      </c>
+      <c r="C97">
+        <v>-31.9943528783681</v>
+      </c>
+      <c r="D97">
+        <v>11.14766948682098</v>
+      </c>
+      <c r="E97">
+        <v>42.22094619130584</v>
+      </c>
+      <c r="F97">
+        <v>47.10202236518909</v>
+      </c>
+      <c r="G97">
+        <v>3.96</v>
+      </c>
+      <c r="H97">
+        <v>44.7</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.487</v>
+      </c>
+      <c r="K97">
+        <v>0.794</v>
+      </c>
+      <c r="L97">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M97">
+        <v>8.652641508485235</v>
+      </c>
+      <c r="N97">
+        <v>-8.959641508485236</v>
+      </c>
+      <c r="O97">
+        <v>-1.329610799859209</v>
+      </c>
+      <c r="P97">
+        <v>-7.630030708626027</v>
+      </c>
+      <c r="Q97">
+        <v>-6.836030708626026</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.081432235201287</v>
+      </c>
+      <c r="T97">
+        <v>22.71466600002726</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>-0.005265305393193819</v>
+      </c>
+      <c r="W97">
+        <v>0.1846672366007297</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>-0.03548049456330071</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2312494865307575</v>
+      </c>
+      <c r="C98">
+        <v>-32.5777580557954</v>
+      </c>
+      <c r="D98">
+        <v>11.06007507113252</v>
+      </c>
+      <c r="E98">
+        <v>42.71675695304468</v>
+      </c>
+      <c r="F98">
+        <v>47.59783312692792</v>
+      </c>
+      <c r="G98">
+        <v>3.96</v>
+      </c>
+      <c r="H98">
+        <v>44.7</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.487</v>
+      </c>
+      <c r="K98">
+        <v>0.794</v>
+      </c>
+      <c r="L98">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M98">
+        <v>8.743721945416658</v>
+      </c>
+      <c r="N98">
+        <v>-9.050721945416658</v>
+      </c>
+      <c r="O98">
+        <v>-1.343127136699832</v>
+      </c>
+      <c r="P98">
+        <v>-7.707594808716826</v>
+      </c>
+      <c r="Q98">
+        <v>-6.913594808716827</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.349465294001605</v>
+      </c>
+      <c r="T98">
+        <v>28.39333250003401</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>-0.005210458462014717</v>
+      </c>
+      <c r="W98">
+        <v>0.1846571612194721</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>-0.03511090607826639</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2329934865307575</v>
+      </c>
+      <c r="C99">
+        <v>-33.15979739407082</v>
+      </c>
+      <c r="D99">
+        <v>10.97384649459593</v>
+      </c>
+      <c r="E99">
+        <v>43.2125677147835</v>
+      </c>
+      <c r="F99">
+        <v>48.09364388866675</v>
+      </c>
+      <c r="G99">
+        <v>3.96</v>
+      </c>
+      <c r="H99">
+        <v>44.7</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.487</v>
+      </c>
+      <c r="K99">
+        <v>0.794</v>
+      </c>
+      <c r="L99">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M99">
+        <v>8.834802382348082</v>
+      </c>
+      <c r="N99">
+        <v>-9.141802382348082</v>
+      </c>
+      <c r="O99">
+        <v>-1.356643473540456</v>
+      </c>
+      <c r="P99">
+        <v>-7.785158908807627</v>
+      </c>
+      <c r="Q99">
+        <v>-6.991158908807627</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.796187058668807</v>
+      </c>
+      <c r="T99">
+        <v>37.85777666671202</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>-0.005156742395396008</v>
+      </c>
+      <c r="W99">
+        <v>0.1846472935780342</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>-0.03474893797436662</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2347374865307575</v>
+      </c>
+      <c r="C100">
+        <v>-33.74050259187304</v>
+      </c>
+      <c r="D100">
+        <v>10.88895205853254</v>
+      </c>
+      <c r="E100">
+        <v>43.70837847652234</v>
+      </c>
+      <c r="F100">
+        <v>48.58945465040558</v>
+      </c>
+      <c r="G100">
+        <v>3.96</v>
+      </c>
+      <c r="H100">
+        <v>44.7</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.487</v>
+      </c>
+      <c r="K100">
+        <v>0.794</v>
+      </c>
+      <c r="L100">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M100">
+        <v>8.925882819279504</v>
+      </c>
+      <c r="N100">
+        <v>-9.232882819279505</v>
+      </c>
+      <c r="O100">
+        <v>-1.370159810381079</v>
+      </c>
+      <c r="P100">
+        <v>-7.862723008898426</v>
+      </c>
+      <c r="Q100">
+        <v>-7.068723008898425</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.689630588003211</v>
+      </c>
+      <c r="T100">
+        <v>56.78666500006803</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>-0.005104122575034824</v>
+      </c>
+      <c r="W100">
+        <v>0.1846376273170339</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>-0.03439435697462834</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2364814865307575</v>
+      </c>
+      <c r="C101">
+        <v>-34.31990437451802</v>
+      </c>
+      <c r="D101">
+        <v>10.8053610376264</v>
+      </c>
+      <c r="E101">
+        <v>44.20418923826118</v>
+      </c>
+      <c r="F101">
+        <v>49.08526541214442</v>
+      </c>
+      <c r="G101">
+        <v>3.96</v>
+      </c>
+      <c r="H101">
+        <v>44.7</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.487</v>
+      </c>
+      <c r="K101">
+        <v>0.794</v>
+      </c>
+      <c r="L101">
+        <v>-0.3070000000000001</v>
+      </c>
+      <c r="M101">
+        <v>9.016963256210929</v>
+      </c>
+      <c r="N101">
+        <v>-9.323963256210929</v>
+      </c>
+      <c r="O101">
+        <v>-1.383676147221702</v>
+      </c>
+      <c r="P101">
+        <v>-7.940287108989227</v>
+      </c>
+      <c r="Q101">
+        <v>-7.146287108989227</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.369961176006421</v>
+      </c>
+      <c r="T101">
+        <v>113.5733300001361</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>-0.005052565781347605</v>
+      </c>
+      <c r="W101">
+        <v>0.1846281563340336</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>-0.03404693922740987</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
